--- a/tempo.xlsx
+++ b/tempo.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaop\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaop\Projeto_Final_GIT_GITHUB\Start-Stop-System---Projeto-Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11736"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16176" windowHeight="5112"/>
   </bookViews>
   <sheets>
     <sheet name="tempo" sheetId="1" r:id="rId1"/>
@@ -181,7 +181,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -361,12 +361,6 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -533,8 +527,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -896,15 +890,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1512"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1461" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F1516" sqref="F1516"/>
+    <sheetView tabSelected="1" topLeftCell="A1496" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L1505" sqref="L1505"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">

--- a/tempo.xlsx
+++ b/tempo.xlsx
@@ -414,7 +414,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.27</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -428,7 +428,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.3</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.39</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -456,7 +456,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.49</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -470,7 +470,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.6</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -484,7 +484,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.7</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.77</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -512,7 +512,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.83</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -526,7 +526,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.87</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.91</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.93</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -568,7 +568,7 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.9399999999999999</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -582,7 +582,7 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.96</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -596,7 +596,7 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.97</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -610,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.98</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -624,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.97</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -638,7 +638,7 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.99</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.98</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -666,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.98</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -694,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.98</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -750,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>0.99</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -764,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>0.98</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>0.99</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>0.98</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>0.98</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>0.98</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>0.99</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -890,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>0.98</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>0.99</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>0.99</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -932,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>0.98</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>0.99</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -960,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -988,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1016,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1030,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>0.99</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>0.99</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>0.98</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1128,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>0.99</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>0.99</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1170,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>0.98</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>0.98</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>0.99</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>0.98</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>0.98</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>0.99</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1282,7 +1282,7 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>0.99</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>0.99</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>0.99</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1324,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>0.99</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1380,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1408,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>0.99</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>0.98</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>0.89</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1450,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>0.75</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1464,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>0.59</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>0.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1492,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>0.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1503,10 +1503,10 @@
         <v>46.78</v>
       </c>
       <c r="C80">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="D80">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1517,10 +1517,10 @@
         <v>46.62</v>
       </c>
       <c r="C81">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="D81">
-        <v>0.19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1531,10 +1531,10 @@
         <v>46.41</v>
       </c>
       <c r="C82">
-        <v>0.28</v>
+        <v>0.3</v>
       </c>
       <c r="D82">
-        <v>0.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1548,7 +1548,7 @@
         <v>0.39</v>
       </c>
       <c r="D83">
-        <v>0.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1562,7 +1562,7 @@
         <v>0.49</v>
       </c>
       <c r="D84">
-        <v>0.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1576,7 +1576,7 @@
         <v>0.57</v>
       </c>
       <c r="D85">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1587,10 +1587,10 @@
         <v>45.24</v>
       </c>
       <c r="C86">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="D86">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1601,10 +1601,10 @@
         <v>44.88</v>
       </c>
       <c r="C87">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D87">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1615,10 +1615,10 @@
         <v>44.51</v>
       </c>
       <c r="C88">
-        <v>0.74</v>
+        <v>0.72</v>
       </c>
       <c r="D88">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1629,7 +1629,7 @@
         <v>44.12</v>
       </c>
       <c r="C89">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -1671,7 +1671,7 @@
         <v>42.88</v>
       </c>
       <c r="C92">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -1685,7 +1685,7 @@
         <v>42.44</v>
       </c>
       <c r="C93">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>42</v>
       </c>
       <c r="C94">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -1713,7 +1713,7 @@
         <v>41.55</v>
       </c>
       <c r="C95">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -1727,7 +1727,7 @@
         <v>41.09</v>
       </c>
       <c r="C96">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -1755,7 +1755,7 @@
         <v>40.17</v>
       </c>
       <c r="C98">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -1769,7 +1769,7 @@
         <v>39.69</v>
       </c>
       <c r="C99">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>39.22</v>
       </c>
       <c r="C100">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -1811,7 +1811,7 @@
         <v>38.26</v>
       </c>
       <c r="C102">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -1825,7 +1825,7 @@
         <v>37.77</v>
       </c>
       <c r="C103">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -1839,7 +1839,7 @@
         <v>37.27</v>
       </c>
       <c r="C104">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -1853,7 +1853,7 @@
         <v>36.77</v>
       </c>
       <c r="C105">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>35.28</v>
       </c>
       <c r="C108">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -1923,7 +1923,7 @@
         <v>34.29</v>
       </c>
       <c r="C110">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>33.79</v>
       </c>
       <c r="C111">
-        <v>0.79</v>
+        <v>0.83</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -1951,7 +1951,7 @@
         <v>33.29</v>
       </c>
       <c r="C112">
-        <v>0.79</v>
+        <v>0.82</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -1965,7 +1965,7 @@
         <v>32.79</v>
       </c>
       <c r="C113">
-        <v>0.79</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -1979,7 +1979,7 @@
         <v>32.29</v>
       </c>
       <c r="C114">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -1993,7 +1993,7 @@
         <v>31.79</v>
       </c>
       <c r="C115">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -2007,7 +2007,7 @@
         <v>31.29</v>
       </c>
       <c r="C116">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>29.8</v>
       </c>
       <c r="C119">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -2063,7 +2063,7 @@
         <v>29.3</v>
       </c>
       <c r="C120">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -2077,7 +2077,7 @@
         <v>28.8</v>
       </c>
       <c r="C121">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>26.26</v>
       </c>
       <c r="C126">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -2161,7 +2161,7 @@
         <v>25.75</v>
       </c>
       <c r="C127">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -2175,7 +2175,7 @@
         <v>25.24</v>
       </c>
       <c r="C128">
-        <v>0.79</v>
+        <v>0.82</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -2217,7 +2217,7 @@
         <v>23.73</v>
       </c>
       <c r="C131">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -2231,7 +2231,7 @@
         <v>23.23</v>
       </c>
       <c r="C132">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -2245,7 +2245,7 @@
         <v>22.72</v>
       </c>
       <c r="C133">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>20.71</v>
       </c>
       <c r="C137">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         <v>20.21</v>
       </c>
       <c r="C138">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="D138">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>18.21</v>
       </c>
       <c r="C142">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="D142">
         <v>0</v>
@@ -2385,7 +2385,7 @@
         <v>17.69</v>
       </c>
       <c r="C143">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -2427,7 +2427,7 @@
         <v>16.16</v>
       </c>
       <c r="C146">
-        <v>0.79</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -2441,7 +2441,7 @@
         <v>15.65</v>
       </c>
       <c r="C147">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D147">
         <v>0</v>
@@ -2497,7 +2497,7 @@
         <v>13.63</v>
       </c>
       <c r="C151">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="D151">
         <v>0</v>
@@ -2511,7 +2511,7 @@
         <v>13.13</v>
       </c>
       <c r="C152">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="D152">
         <v>0</v>
@@ -2525,7 +2525,7 @@
         <v>12.62</v>
       </c>
       <c r="C153">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="D153">
         <v>0</v>
@@ -2553,7 +2553,7 @@
         <v>11.62</v>
       </c>
       <c r="C155">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="D155">
         <v>0</v>
@@ -2595,7 +2595,7 @@
         <v>10.11</v>
       </c>
       <c r="C158">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D158">
         <v>0</v>
@@ -2609,7 +2609,7 @@
         <v>9.609999999999999</v>
       </c>
       <c r="C159">
-        <v>0.79</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D159">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>9.109999999999999</v>
       </c>
       <c r="C160">
-        <v>0.79</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D160">
         <v>0</v>
@@ -2637,7 +2637,7 @@
         <v>8.609999999999999</v>
       </c>
       <c r="C161">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="D161">
         <v>0</v>
@@ -2651,7 +2651,7 @@
         <v>8.109999999999999</v>
       </c>
       <c r="C162">
-        <v>0.79</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D162">
         <v>0</v>
@@ -2665,7 +2665,7 @@
         <v>7.59</v>
       </c>
       <c r="C163">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="D163">
         <v>0</v>
@@ -2707,7 +2707,7 @@
         <v>6.06</v>
       </c>
       <c r="C166">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="D166">
         <v>0</v>
@@ -2721,7 +2721,7 @@
         <v>5.56</v>
       </c>
       <c r="C167">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="D167">
         <v>0</v>
@@ -2735,7 +2735,7 @@
         <v>5.05</v>
       </c>
       <c r="C168">
-        <v>0.79</v>
+        <v>0.77</v>
       </c>
       <c r="D168">
         <v>0</v>
@@ -2749,7 +2749,7 @@
         <v>4.54</v>
       </c>
       <c r="C169">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="D169">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         <v>3.09</v>
       </c>
       <c r="C172">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="D172">
         <v>0.05</v>
@@ -2833,7 +2833,7 @@
         <v>2.07</v>
       </c>
       <c r="C175">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="D175">
         <v>0.05</v>
@@ -2847,7 +2847,7 @@
         <v>1.81</v>
       </c>
       <c r="C176">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="D176">
         <v>0.05</v>
@@ -2861,7 +2861,7 @@
         <v>1.59</v>
       </c>
       <c r="C177">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="D177">
         <v>0.05</v>
@@ -2889,7 +2889,7 @@
         <v>1.21</v>
       </c>
       <c r="C179">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="D179">
         <v>0.05</v>
@@ -2931,7 +2931,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="C182">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="D182">
         <v>0.05</v>
@@ -2973,7 +2973,7 @@
         <v>0.54</v>
       </c>
       <c r="C185">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="D185">
         <v>0.05</v>
@@ -3015,7 +3015,7 @@
         <v>0.36</v>
       </c>
       <c r="C188">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="D188">
         <v>0.05</v>
@@ -3029,7 +3029,7 @@
         <v>0.32</v>
       </c>
       <c r="C189">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="D189">
         <v>0.05</v>
@@ -3043,7 +3043,7 @@
         <v>0.28</v>
       </c>
       <c r="C190">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="D190">
         <v>0.05</v>
@@ -3085,7 +3085,7 @@
         <v>0.19</v>
       </c>
       <c r="C193">
-        <v>0.22</v>
+        <v>0.19</v>
       </c>
       <c r="D193">
         <v>0.05</v>
@@ -3099,7 +3099,7 @@
         <v>0.16</v>
       </c>
       <c r="C194">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="D194">
         <v>0.05</v>
@@ -3113,7 +3113,7 @@
         <v>0.14</v>
       </c>
       <c r="C195">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="D195">
         <v>0.05</v>
@@ -3127,7 +3127,7 @@
         <v>0.13</v>
       </c>
       <c r="C196">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="D196">
         <v>0.05</v>
@@ -3141,7 +3141,7 @@
         <v>0.11</v>
       </c>
       <c r="C197">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="D197">
         <v>0.05</v>
@@ -3155,7 +3155,7 @@
         <v>0.1</v>
       </c>
       <c r="C198">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="D198">
         <v>0.05</v>
@@ -3169,7 +3169,7 @@
         <v>0.08</v>
       </c>
       <c r="C199">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="D199">
         <v>0.05</v>
@@ -3183,7 +3183,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="C200">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="D200">
         <v>0.05</v>
@@ -3197,7 +3197,7 @@
         <v>0.06</v>
       </c>
       <c r="C201">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="D201">
         <v>0.05</v>
@@ -3211,7 +3211,7 @@
         <v>0.06</v>
       </c>
       <c r="C202">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="D202">
         <v>0.05</v>
@@ -3239,7 +3239,7 @@
         <v>0.04</v>
       </c>
       <c r="C204">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="D204">
         <v>0.05</v>
@@ -3253,7 +3253,7 @@
         <v>0.04</v>
       </c>
       <c r="C205">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="D205">
         <v>0.05</v>
@@ -3281,7 +3281,7 @@
         <v>0.03</v>
       </c>
       <c r="C207">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="D207">
         <v>0.05</v>
@@ -3337,7 +3337,7 @@
         <v>0.02</v>
       </c>
       <c r="C211">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="D211">
         <v>0.05</v>
@@ -3365,7 +3365,7 @@
         <v>0.01</v>
       </c>
       <c r="C213">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="D213">
         <v>0.05</v>
@@ -3421,7 +3421,7 @@
         <v>0.01</v>
       </c>
       <c r="C217">
-        <v>0.22</v>
+        <v>0.19</v>
       </c>
       <c r="D217">
         <v>0.05</v>
@@ -3435,7 +3435,7 @@
         <v>0.01</v>
       </c>
       <c r="C218">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="D218">
         <v>0.05</v>
@@ -3449,7 +3449,7 @@
         <v>0.01</v>
       </c>
       <c r="C219">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="D219">
         <v>0.05</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="C221">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="D221">
         <v>0.05</v>
@@ -3491,7 +3491,7 @@
         <v>0</v>
       </c>
       <c r="C222">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="D222">
         <v>0.05</v>
@@ -3519,7 +3519,7 @@
         <v>0</v>
       </c>
       <c r="C224">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="D224">
         <v>0.05</v>
@@ -3533,7 +3533,7 @@
         <v>0</v>
       </c>
       <c r="C225">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="D225">
         <v>0.05</v>
@@ -3547,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="C226">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="D226">
         <v>0.05</v>
@@ -3561,7 +3561,7 @@
         <v>0</v>
       </c>
       <c r="C227">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="D227">
         <v>0.05</v>
@@ -3575,7 +3575,7 @@
         <v>0</v>
       </c>
       <c r="C228">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="D228">
         <v>0.05</v>
@@ -3617,7 +3617,7 @@
         <v>0</v>
       </c>
       <c r="C231">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="D231">
         <v>0.05</v>
@@ -3631,7 +3631,7 @@
         <v>0</v>
       </c>
       <c r="C232">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="D232">
         <v>0.05</v>
@@ -3659,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="C234">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="D234">
         <v>0.05</v>
@@ -3687,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="C236">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D236">
         <v>0.05</v>
@@ -3928,7 +3928,7 @@
         <v>0</v>
       </c>
       <c r="D253">
-        <v>0.28</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="D254">
-        <v>0.46</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -3956,7 +3956,7 @@
         <v>0</v>
       </c>
       <c r="D255">
-        <v>0.59</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -3970,7 +3970,7 @@
         <v>0</v>
       </c>
       <c r="D256">
-        <v>0.6899999999999999</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -3984,7 +3984,7 @@
         <v>0</v>
       </c>
       <c r="D257">
-        <v>0.76</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="D258">
-        <v>0.83</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -4012,7 +4012,7 @@
         <v>0</v>
       </c>
       <c r="D259">
-        <v>0.87</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="D260">
-        <v>0.89</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -4040,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="D261">
-        <v>0.92</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -4054,7 +4054,7 @@
         <v>0</v>
       </c>
       <c r="D262">
-        <v>0.95</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -4068,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="D263">
-        <v>0.95</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -4082,7 +4082,7 @@
         <v>0</v>
       </c>
       <c r="D264">
-        <v>0.96</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -4096,7 +4096,7 @@
         <v>0</v>
       </c>
       <c r="D265">
-        <v>0.98</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -4110,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="D266">
-        <v>0.98</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -4124,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="D267">
-        <v>0.98</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -4138,7 +4138,7 @@
         <v>0</v>
       </c>
       <c r="D268">
-        <v>0.99</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="D269">
-        <v>0.99</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="D270">
-        <v>0.99</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="D271">
-        <v>1</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -4194,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="D272">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -4208,7 +4208,7 @@
         <v>0</v>
       </c>
       <c r="D273">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -4222,7 +4222,7 @@
         <v>0</v>
       </c>
       <c r="D274">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -4236,7 +4236,7 @@
         <v>0</v>
       </c>
       <c r="D275">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -4250,7 +4250,7 @@
         <v>0</v>
       </c>
       <c r="D276">
-        <v>0.99</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -4264,7 +4264,7 @@
         <v>0</v>
       </c>
       <c r="D277">
-        <v>0.99</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -4278,7 +4278,7 @@
         <v>0</v>
       </c>
       <c r="D278">
-        <v>1</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -4292,7 +4292,7 @@
         <v>0</v>
       </c>
       <c r="D279">
-        <v>0.99</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="D280">
-        <v>0.98</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -4320,7 +4320,7 @@
         <v>0</v>
       </c>
       <c r="D281">
-        <v>0.99</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -4334,7 +4334,7 @@
         <v>0</v>
       </c>
       <c r="D282">
-        <v>0.99</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -4348,7 +4348,7 @@
         <v>0</v>
       </c>
       <c r="D283">
-        <v>0.99</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -4362,7 +4362,7 @@
         <v>0</v>
       </c>
       <c r="D284">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -4376,7 +4376,7 @@
         <v>0</v>
       </c>
       <c r="D285">
-        <v>1</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -4390,7 +4390,7 @@
         <v>0</v>
       </c>
       <c r="D286">
-        <v>0.99</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="D287">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -4418,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="D288">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -4432,7 +4432,7 @@
         <v>0</v>
       </c>
       <c r="D289">
-        <v>0.99</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="D290">
-        <v>0.98</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -4460,7 +4460,7 @@
         <v>0</v>
       </c>
       <c r="D291">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -4474,7 +4474,7 @@
         <v>0</v>
       </c>
       <c r="D292">
-        <v>1</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -4488,7 +4488,7 @@
         <v>0</v>
       </c>
       <c r="D293">
-        <v>0.99</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -4502,7 +4502,7 @@
         <v>0</v>
       </c>
       <c r="D294">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -4516,7 +4516,7 @@
         <v>0</v>
       </c>
       <c r="D295">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -4530,7 +4530,7 @@
         <v>0</v>
       </c>
       <c r="D296">
-        <v>0.99</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -4544,7 +4544,7 @@
         <v>0</v>
       </c>
       <c r="D297">
-        <v>1</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -4558,7 +4558,7 @@
         <v>0</v>
       </c>
       <c r="D298">
-        <v>1</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -4572,7 +4572,7 @@
         <v>0</v>
       </c>
       <c r="D299">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="D300">
-        <v>0.99</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -4600,7 +4600,7 @@
         <v>0</v>
       </c>
       <c r="D301">
-        <v>1</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -4614,7 +4614,7 @@
         <v>0</v>
       </c>
       <c r="D302">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -4628,7 +4628,7 @@
         <v>0</v>
       </c>
       <c r="D303">
-        <v>0.99</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -4642,7 +4642,7 @@
         <v>0</v>
       </c>
       <c r="D304">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -4656,7 +4656,7 @@
         <v>0</v>
       </c>
       <c r="D305">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -4670,7 +4670,7 @@
         <v>0</v>
       </c>
       <c r="D306">
-        <v>0.98</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -4684,7 +4684,7 @@
         <v>0</v>
       </c>
       <c r="D307">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -4698,7 +4698,7 @@
         <v>0</v>
       </c>
       <c r="D308">
-        <v>1</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -4712,7 +4712,7 @@
         <v>0</v>
       </c>
       <c r="D309">
-        <v>0.98</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="D310">
-        <v>0.98</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -4740,7 +4740,7 @@
         <v>0</v>
       </c>
       <c r="D311">
-        <v>0.99</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -4754,7 +4754,7 @@
         <v>0</v>
       </c>
       <c r="D312">
-        <v>0.99</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -4768,7 +4768,7 @@
         <v>0</v>
       </c>
       <c r="D313">
-        <v>0.98</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -4782,7 +4782,7 @@
         <v>0</v>
       </c>
       <c r="D314">
-        <v>0.98</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -4796,7 +4796,7 @@
         <v>0</v>
       </c>
       <c r="D315">
-        <v>0.89</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -4810,7 +4810,7 @@
         <v>0</v>
       </c>
       <c r="D316">
-        <v>0.75</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -4824,7 +4824,7 @@
         <v>0</v>
       </c>
       <c r="D317">
-        <v>0.59</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -4838,7 +4838,7 @@
         <v>0</v>
       </c>
       <c r="D318">
-        <v>0.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -4852,7 +4852,7 @@
         <v>0</v>
       </c>
       <c r="D319">
-        <v>0.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -4866,7 +4866,7 @@
         <v>0.08</v>
       </c>
       <c r="D320">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -4877,10 +4877,10 @@
         <v>46.62</v>
       </c>
       <c r="C321">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="D321">
-        <v>0.19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -4891,10 +4891,10 @@
         <v>46.41</v>
       </c>
       <c r="C322">
-        <v>0.27</v>
+        <v>0.29</v>
       </c>
       <c r="D322">
-        <v>0.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -4908,7 +4908,7 @@
         <v>0.39</v>
       </c>
       <c r="D323">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -4922,7 +4922,7 @@
         <v>0.49</v>
       </c>
       <c r="D324">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -4933,10 +4933,10 @@
         <v>45.57</v>
       </c>
       <c r="C325">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="D325">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -4947,10 +4947,10 @@
         <v>45.24</v>
       </c>
       <c r="C326">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="D326">
-        <v>0.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -4961,10 +4961,10 @@
         <v>44.88</v>
       </c>
       <c r="C327">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="D327">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -4975,10 +4975,10 @@
         <v>44.51</v>
       </c>
       <c r="C328">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="D328">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -4989,10 +4989,10 @@
         <v>44.12</v>
       </c>
       <c r="C329">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="D329">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -5006,7 +5006,7 @@
         <v>0.77</v>
       </c>
       <c r="D330">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -5031,7 +5031,7 @@
         <v>42.88</v>
       </c>
       <c r="C332">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="D332">
         <v>0</v>
@@ -5045,7 +5045,7 @@
         <v>42.44</v>
       </c>
       <c r="C333">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="D333">
         <v>0</v>
@@ -5101,7 +5101,7 @@
         <v>40.63</v>
       </c>
       <c r="C337">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D337">
         <v>0</v>
@@ -5129,7 +5129,7 @@
         <v>39.69</v>
       </c>
       <c r="C339">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="D339">
         <v>0</v>
@@ -5143,7 +5143,7 @@
         <v>39.22</v>
       </c>
       <c r="C340">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="D340">
         <v>0</v>
@@ -5157,7 +5157,7 @@
         <v>38.74</v>
       </c>
       <c r="C341">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="D341">
         <v>0</v>
@@ -5171,7 +5171,7 @@
         <v>38.26</v>
       </c>
       <c r="C342">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="D342">
         <v>0</v>
@@ -5199,7 +5199,7 @@
         <v>37.27</v>
       </c>
       <c r="C344">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="D344">
         <v>0</v>
@@ -5255,7 +5255,7 @@
         <v>35.28</v>
       </c>
       <c r="C348">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="D348">
         <v>0</v>
@@ -5269,7 +5269,7 @@
         <v>34.79</v>
       </c>
       <c r="C349">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="D349">
         <v>0</v>
@@ -5311,7 +5311,7 @@
         <v>33.29</v>
       </c>
       <c r="C352">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="D352">
         <v>0</v>
@@ -5339,7 +5339,7 @@
         <v>32.29</v>
       </c>
       <c r="C354">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="D354">
         <v>0</v>
@@ -5381,7 +5381,7 @@
         <v>30.79</v>
       </c>
       <c r="C357">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="D357">
         <v>0</v>
@@ -5395,7 +5395,7 @@
         <v>30.3</v>
       </c>
       <c r="C358">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="D358">
         <v>0</v>
@@ -5409,7 +5409,7 @@
         <v>29.8</v>
       </c>
       <c r="C359">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="D359">
         <v>0</v>
@@ -5423,7 +5423,7 @@
         <v>29.3</v>
       </c>
       <c r="C360">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="D360">
         <v>0</v>
@@ -5437,7 +5437,7 @@
         <v>28.8</v>
       </c>
       <c r="C361">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="D361">
         <v>0</v>
@@ -5451,7 +5451,7 @@
         <v>28.3</v>
       </c>
       <c r="C362">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="D362">
         <v>0</v>
@@ -5465,7 +5465,7 @@
         <v>27.79</v>
       </c>
       <c r="C363">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="D363">
         <v>0</v>
@@ -5479,7 +5479,7 @@
         <v>27.27</v>
       </c>
       <c r="C364">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="D364">
         <v>0</v>
@@ -5521,7 +5521,7 @@
         <v>25.75</v>
       </c>
       <c r="C367">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D367">
         <v>0</v>
@@ -5549,7 +5549,7 @@
         <v>24.74</v>
       </c>
       <c r="C369">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D369">
         <v>0</v>
@@ -5591,7 +5591,7 @@
         <v>23.23</v>
       </c>
       <c r="C372">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="D372">
         <v>0</v>
@@ -5619,7 +5619,7 @@
         <v>22.22</v>
       </c>
       <c r="C374">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D374">
         <v>0</v>
@@ -5633,7 +5633,7 @@
         <v>21.72</v>
       </c>
       <c r="C375">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D375">
         <v>0</v>
@@ -5647,7 +5647,7 @@
         <v>21.22</v>
       </c>
       <c r="C376">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="D376">
         <v>0</v>
@@ -5675,7 +5675,7 @@
         <v>20.21</v>
       </c>
       <c r="C378">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D378">
         <v>0</v>
@@ -5689,7 +5689,7 @@
         <v>19.71</v>
       </c>
       <c r="C379">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D379">
         <v>0</v>
@@ -5703,7 +5703,7 @@
         <v>19.21</v>
       </c>
       <c r="C380">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D380">
         <v>0</v>
@@ -5759,7 +5759,7 @@
         <v>17.18</v>
       </c>
       <c r="C384">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D384">
         <v>0</v>
@@ -5773,7 +5773,7 @@
         <v>16.67</v>
       </c>
       <c r="C385">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="D385">
         <v>0</v>
@@ -5829,7 +5829,7 @@
         <v>14.64</v>
       </c>
       <c r="C389">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="D389">
         <v>0</v>
@@ -5843,7 +5843,7 @@
         <v>14.14</v>
       </c>
       <c r="C390">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="D390">
         <v>0</v>
@@ -5857,7 +5857,7 @@
         <v>13.63</v>
       </c>
       <c r="C391">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="D391">
         <v>0</v>
@@ -5871,7 +5871,7 @@
         <v>13.13</v>
       </c>
       <c r="C392">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="D392">
         <v>0</v>
@@ -5885,7 +5885,7 @@
         <v>12.62</v>
       </c>
       <c r="C393">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="D393">
         <v>0</v>
@@ -5899,7 +5899,7 @@
         <v>12.12</v>
       </c>
       <c r="C394">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="D394">
         <v>0</v>
@@ -5913,7 +5913,7 @@
         <v>11.62</v>
       </c>
       <c r="C395">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
       <c r="D395">
         <v>0</v>
@@ -5927,7 +5927,7 @@
         <v>11.12</v>
       </c>
       <c r="C396">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="D396">
         <v>0</v>
@@ -5941,7 +5941,7 @@
         <v>10.61</v>
       </c>
       <c r="C397">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="D397">
         <v>0</v>
@@ -5955,7 +5955,7 @@
         <v>10.11</v>
       </c>
       <c r="C398">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="D398">
         <v>0</v>
@@ -5983,7 +5983,7 @@
         <v>9.109999999999999</v>
       </c>
       <c r="C400">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="D400">
         <v>0</v>
@@ -5997,7 +5997,7 @@
         <v>8.609999999999999</v>
       </c>
       <c r="C401">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="D401">
         <v>0</v>
@@ -6011,7 +6011,7 @@
         <v>8.109999999999999</v>
       </c>
       <c r="C402">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="D402">
         <v>0</v>
@@ -6025,7 +6025,7 @@
         <v>7.59</v>
       </c>
       <c r="C403">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="D403">
         <v>0</v>
@@ -6039,7 +6039,7 @@
         <v>7.08</v>
       </c>
       <c r="C404">
-        <v>0.8100000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="D404">
         <v>0</v>
@@ -6053,7 +6053,7 @@
         <v>6.57</v>
       </c>
       <c r="C405">
-        <v>0.8100000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="D405">
         <v>0</v>
@@ -6067,7 +6067,7 @@
         <v>6.06</v>
       </c>
       <c r="C406">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="D406">
         <v>0</v>
@@ -6081,7 +6081,7 @@
         <v>5.56</v>
       </c>
       <c r="C407">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="D407">
         <v>0</v>
@@ -6095,7 +6095,7 @@
         <v>5.05</v>
       </c>
       <c r="C408">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D408">
         <v>0</v>
@@ -6123,7 +6123,7 @@
         <v>4.04</v>
       </c>
       <c r="C410">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D410">
         <v>0</v>
@@ -6137,7 +6137,7 @@
         <v>3.53</v>
       </c>
       <c r="C411">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="D411">
         <v>0.05</v>
@@ -6151,7 +6151,7 @@
         <v>3.09</v>
       </c>
       <c r="C412">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="D412">
         <v>0.05</v>
@@ -6179,7 +6179,7 @@
         <v>2.37</v>
       </c>
       <c r="C414">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="D414">
         <v>0.05</v>
@@ -6193,7 +6193,7 @@
         <v>2.07</v>
       </c>
       <c r="C415">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="D415">
         <v>0.05</v>
@@ -6207,7 +6207,7 @@
         <v>1.81</v>
       </c>
       <c r="C416">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="D416">
         <v>0.05</v>
@@ -6221,7 +6221,7 @@
         <v>1.59</v>
       </c>
       <c r="C417">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="D417">
         <v>0.05</v>
@@ -6235,7 +6235,7 @@
         <v>1.39</v>
       </c>
       <c r="C418">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="D418">
         <v>0.05</v>
@@ -6249,7 +6249,7 @@
         <v>1.21</v>
       </c>
       <c r="C419">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="D419">
         <v>0.05</v>
@@ -6277,7 +6277,7 @@
         <v>0.93</v>
       </c>
       <c r="C421">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="D421">
         <v>0.05</v>
@@ -6291,7 +6291,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="C422">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="D422">
         <v>0.05</v>
@@ -6305,7 +6305,7 @@
         <v>0.71</v>
       </c>
       <c r="C423">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="D423">
         <v>0.05</v>
@@ -6319,7 +6319,7 @@
         <v>0.62</v>
       </c>
       <c r="C424">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="D424">
         <v>0.05</v>
@@ -6333,7 +6333,7 @@
         <v>0.54</v>
       </c>
       <c r="C425">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="D425">
         <v>0.05</v>
@@ -6375,7 +6375,7 @@
         <v>0.36</v>
       </c>
       <c r="C428">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="D428">
         <v>0.05</v>
@@ -6389,7 +6389,7 @@
         <v>0.32</v>
       </c>
       <c r="C429">
-        <v>0.17</v>
+        <v>0.21</v>
       </c>
       <c r="D429">
         <v>0.05</v>
@@ -6403,7 +6403,7 @@
         <v>0.28</v>
       </c>
       <c r="C430">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="D430">
         <v>0.05</v>
@@ -6417,7 +6417,7 @@
         <v>0.24</v>
       </c>
       <c r="C431">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="D431">
         <v>0.05</v>
@@ -6431,7 +6431,7 @@
         <v>0.21</v>
       </c>
       <c r="C432">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="D432">
         <v>0.05</v>
@@ -6445,7 +6445,7 @@
         <v>0.19</v>
       </c>
       <c r="C433">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="D433">
         <v>0.05</v>
@@ -6459,7 +6459,7 @@
         <v>0.16</v>
       </c>
       <c r="C434">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="D434">
         <v>0.05</v>
@@ -6501,7 +6501,7 @@
         <v>0.11</v>
       </c>
       <c r="C437">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="D437">
         <v>0.05</v>
@@ -6515,7 +6515,7 @@
         <v>0.1</v>
       </c>
       <c r="C438">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="D438">
         <v>0.05</v>
@@ -6585,7 +6585,7 @@
         <v>0.05</v>
       </c>
       <c r="C443">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="D443">
         <v>0.05</v>
@@ -6599,7 +6599,7 @@
         <v>0.04</v>
       </c>
       <c r="C444">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="D444">
         <v>0.05</v>
@@ -6613,7 +6613,7 @@
         <v>0.04</v>
       </c>
       <c r="C445">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="D445">
         <v>0.05</v>
@@ -6627,7 +6627,7 @@
         <v>0.03</v>
       </c>
       <c r="C446">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="D446">
         <v>0.05</v>
@@ -6641,7 +6641,7 @@
         <v>0.03</v>
       </c>
       <c r="C447">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="D447">
         <v>0.05</v>
@@ -6711,7 +6711,7 @@
         <v>0.01</v>
       </c>
       <c r="C452">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="D452">
         <v>0.05</v>
@@ -6767,7 +6767,7 @@
         <v>0.01</v>
       </c>
       <c r="C456">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="D456">
         <v>0.05</v>
@@ -6795,7 +6795,7 @@
         <v>0.01</v>
       </c>
       <c r="C458">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="D458">
         <v>0.05</v>
@@ -6809,7 +6809,7 @@
         <v>0.01</v>
       </c>
       <c r="C459">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="D459">
         <v>0.05</v>
@@ -6823,7 +6823,7 @@
         <v>0.01</v>
       </c>
       <c r="C460">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="D460">
         <v>0.05</v>
@@ -6837,7 +6837,7 @@
         <v>0</v>
       </c>
       <c r="C461">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="D461">
         <v>0.05</v>
@@ -6851,7 +6851,7 @@
         <v>0</v>
       </c>
       <c r="C462">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="D462">
         <v>0.05</v>
@@ -6865,7 +6865,7 @@
         <v>0</v>
       </c>
       <c r="C463">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="D463">
         <v>0.05</v>
@@ -6879,7 +6879,7 @@
         <v>0</v>
       </c>
       <c r="C464">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="D464">
         <v>0.05</v>
@@ -6907,7 +6907,7 @@
         <v>0</v>
       </c>
       <c r="C466">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="D466">
         <v>0.05</v>
@@ -6921,7 +6921,7 @@
         <v>0</v>
       </c>
       <c r="C467">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="D467">
         <v>0.05</v>
@@ -6935,7 +6935,7 @@
         <v>0</v>
       </c>
       <c r="C468">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="D468">
         <v>0.05</v>
@@ -6963,7 +6963,7 @@
         <v>0</v>
       </c>
       <c r="C470">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D470">
         <v>0.05</v>
@@ -6977,7 +6977,7 @@
         <v>0</v>
       </c>
       <c r="C471">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="D471">
         <v>0.05</v>
@@ -7005,7 +7005,7 @@
         <v>0</v>
       </c>
       <c r="C473">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D473">
         <v>0.05</v>
@@ -7288,7 +7288,7 @@
         <v>0</v>
       </c>
       <c r="D493">
-        <v>0.28</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -7302,7 +7302,7 @@
         <v>0</v>
       </c>
       <c r="D494">
-        <v>0.47</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -7316,7 +7316,7 @@
         <v>0</v>
       </c>
       <c r="D495">
-        <v>0.61</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -7330,7 +7330,7 @@
         <v>0</v>
       </c>
       <c r="D496">
-        <v>0.6899999999999999</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -7344,7 +7344,7 @@
         <v>0</v>
       </c>
       <c r="D497">
-        <v>0.77</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -7358,7 +7358,7 @@
         <v>0</v>
       </c>
       <c r="D498">
-        <v>0.84</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -7372,7 +7372,7 @@
         <v>0</v>
       </c>
       <c r="D499">
-        <v>0.88</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -7386,7 +7386,7 @@
         <v>0</v>
       </c>
       <c r="D500">
-        <v>0.9</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -7400,7 +7400,7 @@
         <v>0</v>
       </c>
       <c r="D501">
-        <v>0.93</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -7414,7 +7414,7 @@
         <v>0</v>
       </c>
       <c r="D502">
-        <v>0.95</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="503" spans="1:4">
@@ -7428,7 +7428,7 @@
         <v>0</v>
       </c>
       <c r="D503">
-        <v>0.9399999999999999</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="504" spans="1:4">
@@ -7442,7 +7442,7 @@
         <v>0</v>
       </c>
       <c r="D504">
-        <v>0.96</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="505" spans="1:4">
@@ -7456,7 +7456,7 @@
         <v>0</v>
       </c>
       <c r="D505">
-        <v>0.98</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="506" spans="1:4">
@@ -7470,7 +7470,7 @@
         <v>0</v>
       </c>
       <c r="D506">
-        <v>0.98</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="507" spans="1:4">
@@ -7484,7 +7484,7 @@
         <v>0</v>
       </c>
       <c r="D507">
-        <v>0.99</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="508" spans="1:4">
@@ -7498,7 +7498,7 @@
         <v>0</v>
       </c>
       <c r="D508">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="509" spans="1:4">
@@ -7512,7 +7512,7 @@
         <v>0</v>
       </c>
       <c r="D509">
-        <v>0.99</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="510" spans="1:4">
@@ -7526,7 +7526,7 @@
         <v>0</v>
       </c>
       <c r="D510">
-        <v>0.98</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="511" spans="1:4">
@@ -7540,7 +7540,7 @@
         <v>0</v>
       </c>
       <c r="D511">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -7554,7 +7554,7 @@
         <v>0</v>
       </c>
       <c r="D512">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="513" spans="1:4">
@@ -7568,7 +7568,7 @@
         <v>0</v>
       </c>
       <c r="D513">
-        <v>0.98</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="514" spans="1:4">
@@ -7582,7 +7582,7 @@
         <v>0</v>
       </c>
       <c r="D514">
-        <v>1</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="515" spans="1:4">
@@ -7596,7 +7596,7 @@
         <v>0</v>
       </c>
       <c r="D515">
-        <v>0.99</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="516" spans="1:4">
@@ -7610,7 +7610,7 @@
         <v>0</v>
       </c>
       <c r="D516">
-        <v>0.97</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="517" spans="1:4">
@@ -7624,7 +7624,7 @@
         <v>0</v>
       </c>
       <c r="D517">
-        <v>0.98</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="518" spans="1:4">
@@ -7638,7 +7638,7 @@
         <v>0</v>
       </c>
       <c r="D518">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="519" spans="1:4">
@@ -7652,7 +7652,7 @@
         <v>0</v>
       </c>
       <c r="D519">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="520" spans="1:4">
@@ -7666,7 +7666,7 @@
         <v>0</v>
       </c>
       <c r="D520">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="521" spans="1:4">
@@ -7680,7 +7680,7 @@
         <v>0</v>
       </c>
       <c r="D521">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="522" spans="1:4">
@@ -7694,7 +7694,7 @@
         <v>0</v>
       </c>
       <c r="D522">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="523" spans="1:4">
@@ -7708,7 +7708,7 @@
         <v>0</v>
       </c>
       <c r="D523">
-        <v>0.99</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="524" spans="1:4">
@@ -7722,7 +7722,7 @@
         <v>0</v>
       </c>
       <c r="D524">
-        <v>1</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="525" spans="1:4">
@@ -7736,7 +7736,7 @@
         <v>0</v>
       </c>
       <c r="D525">
-        <v>1</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="526" spans="1:4">
@@ -7750,7 +7750,7 @@
         <v>0</v>
       </c>
       <c r="D526">
-        <v>0.99</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="527" spans="1:4">
@@ -7764,7 +7764,7 @@
         <v>0</v>
       </c>
       <c r="D527">
-        <v>0.99</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="528" spans="1:4">
@@ -7778,7 +7778,7 @@
         <v>0</v>
       </c>
       <c r="D528">
-        <v>0.99</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="529" spans="1:4">
@@ -7792,7 +7792,7 @@
         <v>0</v>
       </c>
       <c r="D529">
-        <v>0.99</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="530" spans="1:4">
@@ -7806,7 +7806,7 @@
         <v>0</v>
       </c>
       <c r="D530">
-        <v>0.98</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="531" spans="1:4">
@@ -7820,7 +7820,7 @@
         <v>0</v>
       </c>
       <c r="D531">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="532" spans="1:4">
@@ -7834,7 +7834,7 @@
         <v>0</v>
       </c>
       <c r="D532">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="533" spans="1:4">
@@ -7848,7 +7848,7 @@
         <v>0</v>
       </c>
       <c r="D533">
-        <v>0.99</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="534" spans="1:4">
@@ -7862,7 +7862,7 @@
         <v>0</v>
       </c>
       <c r="D534">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="535" spans="1:4">
@@ -7876,7 +7876,7 @@
         <v>0</v>
       </c>
       <c r="D535">
-        <v>1</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="536" spans="1:4">
@@ -7890,7 +7890,7 @@
         <v>0</v>
       </c>
       <c r="D536">
-        <v>0.99</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="537" spans="1:4">
@@ -7904,7 +7904,7 @@
         <v>0</v>
       </c>
       <c r="D537">
-        <v>1</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="538" spans="1:4">
@@ -7918,7 +7918,7 @@
         <v>0</v>
       </c>
       <c r="D538">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="539" spans="1:4">
@@ -7932,7 +7932,7 @@
         <v>0</v>
       </c>
       <c r="D539">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="540" spans="1:4">
@@ -7946,7 +7946,7 @@
         <v>0</v>
       </c>
       <c r="D540">
-        <v>0.98</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="541" spans="1:4">
@@ -7960,7 +7960,7 @@
         <v>0</v>
       </c>
       <c r="D541">
-        <v>1</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="542" spans="1:4">
@@ -7974,7 +7974,7 @@
         <v>0</v>
       </c>
       <c r="D542">
-        <v>1</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="543" spans="1:4">
@@ -7988,7 +7988,7 @@
         <v>0</v>
       </c>
       <c r="D543">
-        <v>0.99</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="544" spans="1:4">
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="D544">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="545" spans="1:4">
@@ -8016,7 +8016,7 @@
         <v>0</v>
       </c>
       <c r="D545">
-        <v>1</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="546" spans="1:4">
@@ -8030,7 +8030,7 @@
         <v>0</v>
       </c>
       <c r="D546">
-        <v>0.99</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="547" spans="1:4">
@@ -8044,7 +8044,7 @@
         <v>0</v>
       </c>
       <c r="D547">
-        <v>0.99</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="548" spans="1:4">
@@ -8058,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="D548">
-        <v>1</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="549" spans="1:4">
@@ -8072,7 +8072,7 @@
         <v>0</v>
       </c>
       <c r="D549">
-        <v>0.99</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="550" spans="1:4">
@@ -8086,7 +8086,7 @@
         <v>0</v>
       </c>
       <c r="D550">
-        <v>0.99</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="551" spans="1:4">
@@ -8100,7 +8100,7 @@
         <v>0</v>
       </c>
       <c r="D551">
-        <v>1</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="552" spans="1:4">
@@ -8114,7 +8114,7 @@
         <v>0</v>
       </c>
       <c r="D552">
-        <v>1</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="553" spans="1:4">
@@ -8128,7 +8128,7 @@
         <v>0</v>
       </c>
       <c r="D553">
-        <v>1</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="554" spans="1:4">
@@ -8142,7 +8142,7 @@
         <v>0</v>
       </c>
       <c r="D554">
-        <v>0.99</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="555" spans="1:4">
@@ -8156,7 +8156,7 @@
         <v>0</v>
       </c>
       <c r="D555">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="556" spans="1:4">
@@ -8170,7 +8170,7 @@
         <v>0</v>
       </c>
       <c r="D556">
-        <v>0.76</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="557" spans="1:4">
@@ -8184,7 +8184,7 @@
         <v>0</v>
       </c>
       <c r="D557">
-        <v>0.61</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="558" spans="1:4">
@@ -8198,7 +8198,7 @@
         <v>0</v>
       </c>
       <c r="D558">
-        <v>0.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:4">
@@ -8212,7 +8212,7 @@
         <v>0</v>
       </c>
       <c r="D559">
-        <v>0.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:4">
@@ -8223,10 +8223,10 @@
         <v>46.78</v>
       </c>
       <c r="C560">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="D560">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:4">
@@ -8237,10 +8237,10 @@
         <v>46.62</v>
       </c>
       <c r="C561">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="D561">
-        <v>0.19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:4">
@@ -8251,10 +8251,10 @@
         <v>46.41</v>
       </c>
       <c r="C562">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
       <c r="D562">
-        <v>0.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:4">
@@ -8265,10 +8265,10 @@
         <v>46.16</v>
       </c>
       <c r="C563">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="D563">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:4">
@@ -8282,7 +8282,7 @@
         <v>0.48</v>
       </c>
       <c r="D564">
-        <v>0.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:4">
@@ -8293,10 +8293,10 @@
         <v>45.57</v>
       </c>
       <c r="C565">
-        <v>0.5600000000000001</v>
+        <v>0.57</v>
       </c>
       <c r="D565">
-        <v>0.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:4">
@@ -8307,10 +8307,10 @@
         <v>45.24</v>
       </c>
       <c r="C566">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="D566">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:4">
@@ -8324,7 +8324,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="D567">
-        <v>0.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:4">
@@ -8338,7 +8338,7 @@
         <v>0.72</v>
       </c>
       <c r="D568">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:4">
@@ -8352,7 +8352,7 @@
         <v>0.74</v>
       </c>
       <c r="D569">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:4">
@@ -8366,7 +8366,7 @@
         <v>0.76</v>
       </c>
       <c r="D570">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:4">
@@ -8380,7 +8380,7 @@
         <v>0.77</v>
       </c>
       <c r="D571">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:4">
@@ -8391,10 +8391,10 @@
         <v>42.88</v>
       </c>
       <c r="C572">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="D572">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:4">
@@ -8419,7 +8419,7 @@
         <v>42</v>
       </c>
       <c r="C574">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="D574">
         <v>0</v>
@@ -8433,7 +8433,7 @@
         <v>41.55</v>
       </c>
       <c r="C575">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="D575">
         <v>0</v>
@@ -8447,10 +8447,10 @@
         <v>41.09</v>
       </c>
       <c r="C576">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="D576">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:4">
@@ -8461,7 +8461,7 @@
         <v>40.63</v>
       </c>
       <c r="C577">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D577">
         <v>0</v>
@@ -8475,7 +8475,7 @@
         <v>40.17</v>
       </c>
       <c r="C578">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D578">
         <v>0</v>
@@ -8503,7 +8503,7 @@
         <v>39.22</v>
       </c>
       <c r="C580">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D580">
         <v>0</v>
@@ -8517,7 +8517,7 @@
         <v>38.74</v>
       </c>
       <c r="C581">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="D581">
         <v>0</v>
@@ -8559,7 +8559,7 @@
         <v>37.27</v>
       </c>
       <c r="C584">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D584">
         <v>0</v>
@@ -8573,7 +8573,7 @@
         <v>36.77</v>
       </c>
       <c r="C585">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D585">
         <v>0</v>
@@ -8587,7 +8587,7 @@
         <v>36.28</v>
       </c>
       <c r="C586">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="D586">
         <v>0</v>
@@ -8615,7 +8615,7 @@
         <v>35.28</v>
       </c>
       <c r="C588">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="D588">
         <v>0</v>
@@ -8657,7 +8657,7 @@
         <v>33.79</v>
       </c>
       <c r="C591">
-        <v>0.8100000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="D591">
         <v>0</v>
@@ -8671,7 +8671,7 @@
         <v>33.29</v>
       </c>
       <c r="C592">
-        <v>0.8100000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="D592">
         <v>0</v>
@@ -8685,7 +8685,7 @@
         <v>32.79</v>
       </c>
       <c r="C593">
-        <v>0.82</v>
+        <v>0.79</v>
       </c>
       <c r="D593">
         <v>0</v>
@@ -8699,7 +8699,7 @@
         <v>32.29</v>
       </c>
       <c r="C594">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="D594">
         <v>0</v>
@@ -8713,7 +8713,7 @@
         <v>31.79</v>
       </c>
       <c r="C595">
-        <v>0.8100000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="D595">
         <v>0</v>
@@ -8727,7 +8727,7 @@
         <v>31.29</v>
       </c>
       <c r="C596">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="D596">
         <v>0</v>
@@ -8741,7 +8741,7 @@
         <v>30.79</v>
       </c>
       <c r="C597">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="D597">
         <v>0</v>
@@ -8755,7 +8755,7 @@
         <v>30.3</v>
       </c>
       <c r="C598">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="D598">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>29.8</v>
       </c>
       <c r="C599">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="D599">
         <v>0</v>
@@ -8811,7 +8811,7 @@
         <v>28.3</v>
       </c>
       <c r="C602">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="D602">
         <v>0</v>
@@ -8825,7 +8825,7 @@
         <v>27.79</v>
       </c>
       <c r="C603">
-        <v>0.79</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D603">
         <v>0</v>
@@ -8853,7 +8853,7 @@
         <v>26.77</v>
       </c>
       <c r="C605">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="D605">
         <v>0</v>
@@ -8867,7 +8867,7 @@
         <v>26.26</v>
       </c>
       <c r="C606">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="D606">
         <v>0</v>
@@ -8895,7 +8895,7 @@
         <v>25.24</v>
       </c>
       <c r="C608">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="D608">
         <v>0</v>
@@ -8909,7 +8909,7 @@
         <v>24.74</v>
       </c>
       <c r="C609">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="D609">
         <v>0</v>
@@ -8923,7 +8923,7 @@
         <v>24.23</v>
       </c>
       <c r="C610">
-        <v>0.8100000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="D610">
         <v>0</v>
@@ -8937,7 +8937,7 @@
         <v>23.73</v>
       </c>
       <c r="C611">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="D611">
         <v>0</v>
@@ -8951,7 +8951,7 @@
         <v>23.23</v>
       </c>
       <c r="C612">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="D612">
         <v>0</v>
@@ -8965,7 +8965,7 @@
         <v>22.72</v>
       </c>
       <c r="C613">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="D613">
         <v>0</v>
@@ -8979,7 +8979,7 @@
         <v>22.22</v>
       </c>
       <c r="C614">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="D614">
         <v>0</v>
@@ -8993,7 +8993,7 @@
         <v>21.72</v>
       </c>
       <c r="C615">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="D615">
         <v>0</v>
@@ -9007,7 +9007,7 @@
         <v>21.22</v>
       </c>
       <c r="C616">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="D616">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>20.71</v>
       </c>
       <c r="C617">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="D617">
         <v>0</v>
@@ -9035,7 +9035,7 @@
         <v>20.21</v>
       </c>
       <c r="C618">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D618">
         <v>0</v>
@@ -9049,7 +9049,7 @@
         <v>19.71</v>
       </c>
       <c r="C619">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D619">
         <v>0</v>
@@ -9063,7 +9063,7 @@
         <v>19.21</v>
       </c>
       <c r="C620">
-        <v>0.79</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D620">
         <v>0</v>
@@ -9077,7 +9077,7 @@
         <v>18.71</v>
       </c>
       <c r="C621">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D621">
         <v>0</v>
@@ -9091,7 +9091,7 @@
         <v>18.21</v>
       </c>
       <c r="C622">
-        <v>0.79</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D622">
         <v>0</v>
@@ -9119,7 +9119,7 @@
         <v>17.18</v>
       </c>
       <c r="C624">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D624">
         <v>0</v>
@@ -9175,7 +9175,7 @@
         <v>15.15</v>
       </c>
       <c r="C628">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="D628">
         <v>0</v>
@@ -9189,7 +9189,7 @@
         <v>14.64</v>
       </c>
       <c r="C629">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="D629">
         <v>0</v>
@@ -9203,7 +9203,7 @@
         <v>14.14</v>
       </c>
       <c r="C630">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="D630">
         <v>0</v>
@@ -9259,7 +9259,7 @@
         <v>12.12</v>
       </c>
       <c r="C634">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="D634">
         <v>0</v>
@@ -9273,7 +9273,7 @@
         <v>11.62</v>
       </c>
       <c r="C635">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="D635">
         <v>0</v>
@@ -9287,7 +9287,7 @@
         <v>11.12</v>
       </c>
       <c r="C636">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="D636">
         <v>0</v>
@@ -9315,7 +9315,7 @@
         <v>10.11</v>
       </c>
       <c r="C638">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="D638">
         <v>0</v>
@@ -9385,7 +9385,7 @@
         <v>7.59</v>
       </c>
       <c r="C643">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="D643">
         <v>0</v>
@@ -9399,7 +9399,7 @@
         <v>7.08</v>
       </c>
       <c r="C644">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="D644">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>6.57</v>
       </c>
       <c r="C645">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="D645">
         <v>0</v>
@@ -9441,7 +9441,7 @@
         <v>5.56</v>
       </c>
       <c r="C647">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D647">
         <v>0</v>
@@ -9455,7 +9455,7 @@
         <v>5.05</v>
       </c>
       <c r="C648">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="D648">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>3.53</v>
       </c>
       <c r="C651">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="D651">
         <v>0.05</v>
@@ -9511,7 +9511,7 @@
         <v>3.09</v>
       </c>
       <c r="C652">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="D652">
         <v>0.05</v>
@@ -9525,7 +9525,7 @@
         <v>2.7</v>
       </c>
       <c r="C653">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="D653">
         <v>0.05</v>
@@ -9539,7 +9539,7 @@
         <v>2.37</v>
       </c>
       <c r="C654">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="D654">
         <v>0.05</v>
@@ -9553,7 +9553,7 @@
         <v>2.07</v>
       </c>
       <c r="C655">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="D655">
         <v>0.05</v>
@@ -9581,7 +9581,7 @@
         <v>1.59</v>
       </c>
       <c r="C657">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="D657">
         <v>0.05</v>
@@ -9609,7 +9609,7 @@
         <v>1.21</v>
       </c>
       <c r="C659">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="D659">
         <v>0.05</v>
@@ -9623,7 +9623,7 @@
         <v>1.06</v>
       </c>
       <c r="C660">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="D660">
         <v>0.05</v>
@@ -9651,7 +9651,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="C662">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="D662">
         <v>0.05</v>
@@ -9665,7 +9665,7 @@
         <v>0.71</v>
       </c>
       <c r="C663">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="D663">
         <v>0.05</v>
@@ -9679,7 +9679,7 @@
         <v>0.62</v>
       </c>
       <c r="C664">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
       <c r="D664">
         <v>0.05</v>
@@ -9693,7 +9693,7 @@
         <v>0.54</v>
       </c>
       <c r="C665">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="D665">
         <v>0.05</v>
@@ -9721,7 +9721,7 @@
         <v>0.42</v>
       </c>
       <c r="C667">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="D667">
         <v>0.05</v>
@@ -9735,7 +9735,7 @@
         <v>0.36</v>
       </c>
       <c r="C668">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
       <c r="D668">
         <v>0.05</v>
@@ -9749,7 +9749,7 @@
         <v>0.32</v>
       </c>
       <c r="C669">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="D669">
         <v>0.05</v>
@@ -9763,7 +9763,7 @@
         <v>0.28</v>
       </c>
       <c r="C670">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="D670">
         <v>0.05</v>
@@ -9777,7 +9777,7 @@
         <v>0.24</v>
       </c>
       <c r="C671">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="D671">
         <v>0.05</v>
@@ -9805,7 +9805,7 @@
         <v>0.19</v>
       </c>
       <c r="C673">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="D673">
         <v>0.05</v>
@@ -9819,7 +9819,7 @@
         <v>0.16</v>
       </c>
       <c r="C674">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="D674">
         <v>0.05</v>
@@ -9833,7 +9833,7 @@
         <v>0.14</v>
       </c>
       <c r="C675">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="D675">
         <v>0.05</v>
@@ -9847,7 +9847,7 @@
         <v>0.13</v>
       </c>
       <c r="C676">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="D676">
         <v>0.05</v>
@@ -9889,7 +9889,7 @@
         <v>0.08</v>
       </c>
       <c r="C679">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="D679">
         <v>0.05</v>
@@ -9903,7 +9903,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="C680">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="D680">
         <v>0.05</v>
@@ -9917,7 +9917,7 @@
         <v>0.06</v>
       </c>
       <c r="C681">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="D681">
         <v>0.05</v>
@@ -9945,7 +9945,7 @@
         <v>0.05</v>
       </c>
       <c r="C683">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="D683">
         <v>0.05</v>
@@ -9959,7 +9959,7 @@
         <v>0.04</v>
       </c>
       <c r="C684">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="D684">
         <v>0.05</v>
@@ -9973,7 +9973,7 @@
         <v>0.04</v>
       </c>
       <c r="C685">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="D685">
         <v>0.05</v>
@@ -9987,7 +9987,7 @@
         <v>0.03</v>
       </c>
       <c r="C686">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="D686">
         <v>0.05</v>
@@ -10015,7 +10015,7 @@
         <v>0.03</v>
       </c>
       <c r="C688">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="D688">
         <v>0.05</v>
@@ -10029,7 +10029,7 @@
         <v>0.02</v>
       </c>
       <c r="C689">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="D689">
         <v>0.05</v>
@@ -10043,7 +10043,7 @@
         <v>0.02</v>
       </c>
       <c r="C690">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="D690">
         <v>0.05</v>
@@ -10085,7 +10085,7 @@
         <v>0.01</v>
       </c>
       <c r="C693">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="D693">
         <v>0.05</v>
@@ -10099,7 +10099,7 @@
         <v>0.01</v>
       </c>
       <c r="C694">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="D694">
         <v>0.05</v>
@@ -10141,7 +10141,7 @@
         <v>0.01</v>
       </c>
       <c r="C697">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="D697">
         <v>0.05</v>
@@ -10155,7 +10155,7 @@
         <v>0.01</v>
       </c>
       <c r="C698">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="D698">
         <v>0.05</v>
@@ -10169,7 +10169,7 @@
         <v>0.01</v>
       </c>
       <c r="C699">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="D699">
         <v>0.05</v>
@@ -10183,7 +10183,7 @@
         <v>0.01</v>
       </c>
       <c r="C700">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="D700">
         <v>0.05</v>
@@ -10197,7 +10197,7 @@
         <v>0</v>
       </c>
       <c r="C701">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="D701">
         <v>0.05</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="C702">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="D702">
         <v>0.05</v>
@@ -10225,7 +10225,7 @@
         <v>0</v>
       </c>
       <c r="C703">
-        <v>0.22</v>
+        <v>0.19</v>
       </c>
       <c r="D703">
         <v>0.05</v>
@@ -10239,7 +10239,7 @@
         <v>0</v>
       </c>
       <c r="C704">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="D704">
         <v>0.05</v>
@@ -10253,7 +10253,7 @@
         <v>0</v>
       </c>
       <c r="C705">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="D705">
         <v>0.05</v>
@@ -10267,7 +10267,7 @@
         <v>0</v>
       </c>
       <c r="C706">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="D706">
         <v>0.05</v>
@@ -10281,7 +10281,7 @@
         <v>0</v>
       </c>
       <c r="C707">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="D707">
         <v>0.05</v>
@@ -10295,7 +10295,7 @@
         <v>0</v>
       </c>
       <c r="C708">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="D708">
         <v>0.05</v>
@@ -10309,7 +10309,7 @@
         <v>0</v>
       </c>
       <c r="C709">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="D709">
         <v>0.05</v>
@@ -10323,7 +10323,7 @@
         <v>0</v>
       </c>
       <c r="C710">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="D710">
         <v>0.05</v>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="C712">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="D712">
         <v>0.05</v>
@@ -10365,7 +10365,7 @@
         <v>0</v>
       </c>
       <c r="C713">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D713">
         <v>0.05</v>
@@ -10648,7 +10648,7 @@
         <v>0</v>
       </c>
       <c r="D733">
-        <v>0.28</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="734" spans="1:4">
@@ -10662,7 +10662,7 @@
         <v>0</v>
       </c>
       <c r="D734">
-        <v>0.47</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="735" spans="1:4">
@@ -10676,7 +10676,7 @@
         <v>0</v>
       </c>
       <c r="D735">
-        <v>0.6</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="736" spans="1:4">
@@ -10690,7 +10690,7 @@
         <v>0</v>
       </c>
       <c r="D736">
-        <v>0.7</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="737" spans="1:4">
@@ -10704,7 +10704,7 @@
         <v>0</v>
       </c>
       <c r="D737">
-        <v>0.78</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="738" spans="1:4">
@@ -10718,7 +10718,7 @@
         <v>0</v>
       </c>
       <c r="D738">
-        <v>0.84</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="739" spans="1:4">
@@ -10732,7 +10732,7 @@
         <v>0</v>
       </c>
       <c r="D739">
-        <v>0.87</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="740" spans="1:4">
@@ -10746,7 +10746,7 @@
         <v>0</v>
       </c>
       <c r="D740">
-        <v>0.89</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="741" spans="1:4">
@@ -10760,7 +10760,7 @@
         <v>0</v>
       </c>
       <c r="D741">
-        <v>0.92</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="742" spans="1:4">
@@ -10774,7 +10774,7 @@
         <v>0</v>
       </c>
       <c r="D742">
-        <v>0.9399999999999999</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="743" spans="1:4">
@@ -10788,7 +10788,7 @@
         <v>0</v>
       </c>
       <c r="D743">
-        <v>0.9399999999999999</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="744" spans="1:4">
@@ -10802,7 +10802,7 @@
         <v>0</v>
       </c>
       <c r="D744">
-        <v>0.96</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="745" spans="1:4">
@@ -10816,7 +10816,7 @@
         <v>0</v>
       </c>
       <c r="D745">
-        <v>0.97</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="746" spans="1:4">
@@ -10830,7 +10830,7 @@
         <v>0</v>
       </c>
       <c r="D746">
-        <v>0.97</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="747" spans="1:4">
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="D747">
-        <v>0.98</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="748" spans="1:4">
@@ -10858,7 +10858,7 @@
         <v>0</v>
       </c>
       <c r="D748">
-        <v>0.98</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="749" spans="1:4">
@@ -10872,7 +10872,7 @@
         <v>0</v>
       </c>
       <c r="D749">
-        <v>0.97</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="750" spans="1:4">
@@ -10886,7 +10886,7 @@
         <v>0</v>
       </c>
       <c r="D750">
-        <v>0.98</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="751" spans="1:4">
@@ -10900,7 +10900,7 @@
         <v>0</v>
       </c>
       <c r="D751">
-        <v>1</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="752" spans="1:4">
@@ -10914,7 +10914,7 @@
         <v>0</v>
       </c>
       <c r="D752">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="753" spans="1:4">
@@ -10928,7 +10928,7 @@
         <v>0</v>
       </c>
       <c r="D753">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="754" spans="1:4">
@@ -10942,7 +10942,7 @@
         <v>0</v>
       </c>
       <c r="D754">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="755" spans="1:4">
@@ -10956,7 +10956,7 @@
         <v>0</v>
       </c>
       <c r="D755">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="756" spans="1:4">
@@ -10970,7 +10970,7 @@
         <v>0</v>
       </c>
       <c r="D756">
-        <v>0.99</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="757" spans="1:4">
@@ -10984,7 +10984,7 @@
         <v>0</v>
       </c>
       <c r="D757">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="758" spans="1:4">
@@ -10998,7 +10998,7 @@
         <v>0</v>
       </c>
       <c r="D758">
-        <v>1</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="759" spans="1:4">
@@ -11012,7 +11012,7 @@
         <v>0</v>
       </c>
       <c r="D759">
-        <v>1</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="760" spans="1:4">
@@ -11026,7 +11026,7 @@
         <v>0</v>
       </c>
       <c r="D760">
-        <v>0.99</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="761" spans="1:4">
@@ -11040,7 +11040,7 @@
         <v>0</v>
       </c>
       <c r="D761">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="762" spans="1:4">
@@ -11054,7 +11054,7 @@
         <v>0</v>
       </c>
       <c r="D762">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="763" spans="1:4">
@@ -11068,7 +11068,7 @@
         <v>0</v>
       </c>
       <c r="D763">
-        <v>0.99</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="764" spans="1:4">
@@ -11082,7 +11082,7 @@
         <v>0</v>
       </c>
       <c r="D764">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="765" spans="1:4">
@@ -11096,7 +11096,7 @@
         <v>0</v>
       </c>
       <c r="D765">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="766" spans="1:4">
@@ -11110,7 +11110,7 @@
         <v>0</v>
       </c>
       <c r="D766">
-        <v>0.99</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="767" spans="1:4">
@@ -11124,7 +11124,7 @@
         <v>0</v>
       </c>
       <c r="D767">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="768" spans="1:4">
@@ -11138,7 +11138,7 @@
         <v>0</v>
       </c>
       <c r="D768">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="769" spans="1:4">
@@ -11152,7 +11152,7 @@
         <v>0</v>
       </c>
       <c r="D769">
-        <v>0.99</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="770" spans="1:4">
@@ -11166,7 +11166,7 @@
         <v>0</v>
       </c>
       <c r="D770">
-        <v>0.99</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="771" spans="1:4">
@@ -11180,7 +11180,7 @@
         <v>0</v>
       </c>
       <c r="D771">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="772" spans="1:4">
@@ -11194,7 +11194,7 @@
         <v>0</v>
       </c>
       <c r="D772">
-        <v>1</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="773" spans="1:4">
@@ -11208,7 +11208,7 @@
         <v>0</v>
       </c>
       <c r="D773">
-        <v>0.98</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="774" spans="1:4">
@@ -11222,7 +11222,7 @@
         <v>0</v>
       </c>
       <c r="D774">
-        <v>0.99</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="775" spans="1:4">
@@ -11236,7 +11236,7 @@
         <v>0</v>
       </c>
       <c r="D775">
-        <v>1</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="776" spans="1:4">
@@ -11250,7 +11250,7 @@
         <v>0</v>
       </c>
       <c r="D776">
-        <v>0.99</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="777" spans="1:4">
@@ -11264,7 +11264,7 @@
         <v>0</v>
       </c>
       <c r="D777">
-        <v>0.99</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="778" spans="1:4">
@@ -11278,7 +11278,7 @@
         <v>0</v>
       </c>
       <c r="D778">
-        <v>1</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="779" spans="1:4">
@@ -11292,7 +11292,7 @@
         <v>0</v>
       </c>
       <c r="D779">
-        <v>0.99</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="780" spans="1:4">
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="D780">
-        <v>0.99</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="781" spans="1:4">
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="D781">
-        <v>1</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="782" spans="1:4">
@@ -11334,7 +11334,7 @@
         <v>0</v>
       </c>
       <c r="D782">
-        <v>1</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="783" spans="1:4">
@@ -11348,7 +11348,7 @@
         <v>0</v>
       </c>
       <c r="D783">
-        <v>0.99</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="784" spans="1:4">
@@ -11362,7 +11362,7 @@
         <v>0</v>
       </c>
       <c r="D784">
-        <v>0.99</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="785" spans="1:4">
@@ -11376,7 +11376,7 @@
         <v>0</v>
       </c>
       <c r="D785">
-        <v>0.99</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="786" spans="1:4">
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="D786">
-        <v>0.99</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="787" spans="1:4">
@@ -11404,7 +11404,7 @@
         <v>0</v>
       </c>
       <c r="D787">
-        <v>0.99</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="788" spans="1:4">
@@ -11418,7 +11418,7 @@
         <v>0</v>
       </c>
       <c r="D788">
-        <v>1</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="789" spans="1:4">
@@ -11432,7 +11432,7 @@
         <v>0</v>
       </c>
       <c r="D789">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="790" spans="1:4">
@@ -11446,7 +11446,7 @@
         <v>0</v>
       </c>
       <c r="D790">
-        <v>0.99</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="791" spans="1:4">
@@ -11460,7 +11460,7 @@
         <v>0</v>
       </c>
       <c r="D791">
-        <v>1</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="792" spans="1:4">
@@ -11474,7 +11474,7 @@
         <v>0</v>
       </c>
       <c r="D792">
-        <v>1</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="793" spans="1:4">
@@ -11488,7 +11488,7 @@
         <v>0</v>
       </c>
       <c r="D793">
-        <v>1</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="794" spans="1:4">
@@ -11502,7 +11502,7 @@
         <v>0</v>
       </c>
       <c r="D794">
-        <v>0.98</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="795" spans="1:4">
@@ -11516,7 +11516,7 @@
         <v>0</v>
       </c>
       <c r="D795">
-        <v>0.91</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="796" spans="1:4">
@@ -11530,7 +11530,7 @@
         <v>0</v>
       </c>
       <c r="D796">
-        <v>0.76</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="797" spans="1:4">
@@ -11544,7 +11544,7 @@
         <v>0</v>
       </c>
       <c r="D797">
-        <v>0.59</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="798" spans="1:4">
@@ -11558,7 +11558,7 @@
         <v>0</v>
       </c>
       <c r="D798">
-        <v>0.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799" spans="1:4">
@@ -11572,7 +11572,7 @@
         <v>0</v>
       </c>
       <c r="D799">
-        <v>0.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:4">
@@ -11586,7 +11586,7 @@
         <v>0.08</v>
       </c>
       <c r="D800">
-        <v>0.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801" spans="1:4">
@@ -11597,10 +11597,10 @@
         <v>46.62</v>
       </c>
       <c r="C801">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="D801">
-        <v>0.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:4">
@@ -11614,7 +11614,7 @@
         <v>0.29</v>
       </c>
       <c r="D802">
-        <v>0.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:4">
@@ -11628,7 +11628,7 @@
         <v>0.39</v>
       </c>
       <c r="D803">
-        <v>0.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:4">
@@ -11639,10 +11639,10 @@
         <v>45.88</v>
       </c>
       <c r="C804">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="D804">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:4">
@@ -11656,7 +11656,7 @@
         <v>0.57</v>
       </c>
       <c r="D805">
-        <v>0.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806" spans="1:4">
@@ -11670,7 +11670,7 @@
         <v>0.65</v>
       </c>
       <c r="D806">
-        <v>0.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="807" spans="1:4">
@@ -11684,7 +11684,7 @@
         <v>0.7</v>
       </c>
       <c r="D807">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="808" spans="1:4">
@@ -11695,10 +11695,10 @@
         <v>44.51</v>
       </c>
       <c r="C808">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="D808">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="809" spans="1:4">
@@ -11709,10 +11709,10 @@
         <v>44.12</v>
       </c>
       <c r="C809">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="D809">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810" spans="1:4">
@@ -11726,7 +11726,7 @@
         <v>0.77</v>
       </c>
       <c r="D810">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="811" spans="1:4">
@@ -11737,10 +11737,10 @@
         <v>43.3</v>
       </c>
       <c r="C811">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="D811">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812" spans="1:4">
@@ -11751,10 +11751,10 @@
         <v>42.88</v>
       </c>
       <c r="C812">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="D812">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="813" spans="1:4">
@@ -11765,10 +11765,10 @@
         <v>42.44</v>
       </c>
       <c r="C813">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="D813">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="814" spans="1:4">
@@ -11779,7 +11779,7 @@
         <v>42</v>
       </c>
       <c r="C814">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="D814">
         <v>0</v>
@@ -11796,7 +11796,7 @@
         <v>0.79</v>
       </c>
       <c r="D815">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="816" spans="1:4">
@@ -11821,7 +11821,7 @@
         <v>40.63</v>
       </c>
       <c r="C817">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="D817">
         <v>0</v>
@@ -11835,7 +11835,7 @@
         <v>40.17</v>
       </c>
       <c r="C818">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="D818">
         <v>0</v>
@@ -11863,7 +11863,7 @@
         <v>39.22</v>
       </c>
       <c r="C820">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="D820">
         <v>0</v>
@@ -11891,7 +11891,7 @@
         <v>38.26</v>
       </c>
       <c r="C822">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="D822">
         <v>0</v>
@@ -11905,7 +11905,7 @@
         <v>37.77</v>
       </c>
       <c r="C823">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="D823">
         <v>0</v>
@@ -11919,7 +11919,7 @@
         <v>37.27</v>
       </c>
       <c r="C824">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="D824">
         <v>0</v>
@@ -11961,7 +11961,7 @@
         <v>35.78</v>
       </c>
       <c r="C827">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="D827">
         <v>0</v>
@@ -11975,7 +11975,7 @@
         <v>35.28</v>
       </c>
       <c r="C828">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="D828">
         <v>0</v>
@@ -11989,7 +11989,7 @@
         <v>34.79</v>
       </c>
       <c r="C829">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="D829">
         <v>0</v>
@@ -12003,7 +12003,7 @@
         <v>34.29</v>
       </c>
       <c r="C830">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
       <c r="D830">
         <v>0</v>
@@ -12031,7 +12031,7 @@
         <v>33.29</v>
       </c>
       <c r="C832">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D832">
         <v>0</v>
@@ -12059,7 +12059,7 @@
         <v>32.29</v>
       </c>
       <c r="C834">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D834">
         <v>0</v>
@@ -12073,7 +12073,7 @@
         <v>31.79</v>
       </c>
       <c r="C835">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="D835">
         <v>0</v>
@@ -12087,7 +12087,7 @@
         <v>31.29</v>
       </c>
       <c r="C836">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
       <c r="D836">
         <v>0</v>
@@ -12101,7 +12101,7 @@
         <v>30.79</v>
       </c>
       <c r="C837">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
       <c r="D837">
         <v>0</v>
@@ -12115,7 +12115,7 @@
         <v>30.3</v>
       </c>
       <c r="C838">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="D838">
         <v>0</v>
@@ -12129,7 +12129,7 @@
         <v>29.8</v>
       </c>
       <c r="C839">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="D839">
         <v>0</v>
@@ -12143,7 +12143,7 @@
         <v>29.3</v>
       </c>
       <c r="C840">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="D840">
         <v>0</v>
@@ -12157,7 +12157,7 @@
         <v>28.8</v>
       </c>
       <c r="C841">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="D841">
         <v>0</v>
@@ -12171,7 +12171,7 @@
         <v>28.3</v>
       </c>
       <c r="C842">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="D842">
         <v>0</v>
@@ -12227,7 +12227,7 @@
         <v>26.26</v>
       </c>
       <c r="C846">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="D846">
         <v>0</v>
@@ -12255,7 +12255,7 @@
         <v>25.24</v>
       </c>
       <c r="C848">
-        <v>0.79</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D848">
         <v>0</v>
@@ -12269,7 +12269,7 @@
         <v>24.74</v>
       </c>
       <c r="C849">
-        <v>0.79</v>
+        <v>0.82</v>
       </c>
       <c r="D849">
         <v>0</v>
@@ -12283,7 +12283,7 @@
         <v>24.23</v>
       </c>
       <c r="C850">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="D850">
         <v>0</v>
@@ -12297,7 +12297,7 @@
         <v>23.73</v>
       </c>
       <c r="C851">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="D851">
         <v>0</v>
@@ -12325,7 +12325,7 @@
         <v>22.72</v>
       </c>
       <c r="C853">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="D853">
         <v>0</v>
@@ -12339,7 +12339,7 @@
         <v>22.22</v>
       </c>
       <c r="C854">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="D854">
         <v>0</v>
@@ -12353,7 +12353,7 @@
         <v>21.72</v>
       </c>
       <c r="C855">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="D855">
         <v>0</v>
@@ -12367,7 +12367,7 @@
         <v>21.22</v>
       </c>
       <c r="C856">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="D856">
         <v>0</v>
@@ -12395,7 +12395,7 @@
         <v>20.21</v>
       </c>
       <c r="C858">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
       <c r="D858">
         <v>0</v>
@@ -12409,7 +12409,7 @@
         <v>19.71</v>
       </c>
       <c r="C859">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D859">
         <v>0</v>
@@ -12465,7 +12465,7 @@
         <v>17.69</v>
       </c>
       <c r="C863">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="D863">
         <v>0</v>
@@ -12493,7 +12493,7 @@
         <v>16.67</v>
       </c>
       <c r="C865">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="D865">
         <v>0</v>
@@ -12521,7 +12521,7 @@
         <v>15.65</v>
       </c>
       <c r="C867">
-        <v>0.79</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D867">
         <v>0</v>
@@ -12535,7 +12535,7 @@
         <v>15.15</v>
       </c>
       <c r="C868">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D868">
         <v>0</v>
@@ -12549,7 +12549,7 @@
         <v>14.64</v>
       </c>
       <c r="C869">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D869">
         <v>0</v>
@@ -12563,7 +12563,7 @@
         <v>14.14</v>
       </c>
       <c r="C870">
-        <v>0.79</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D870">
         <v>0</v>
@@ -12577,7 +12577,7 @@
         <v>13.63</v>
       </c>
       <c r="C871">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D871">
         <v>0</v>
@@ -12591,7 +12591,7 @@
         <v>13.13</v>
       </c>
       <c r="C872">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D872">
         <v>0</v>
@@ -12605,7 +12605,7 @@
         <v>12.62</v>
       </c>
       <c r="C873">
-        <v>0.79</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D873">
         <v>0</v>
@@ -12619,7 +12619,7 @@
         <v>12.12</v>
       </c>
       <c r="C874">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="D874">
         <v>0</v>
@@ -12633,7 +12633,7 @@
         <v>11.62</v>
       </c>
       <c r="C875">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D875">
         <v>0</v>
@@ -12647,7 +12647,7 @@
         <v>11.12</v>
       </c>
       <c r="C876">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="D876">
         <v>0</v>
@@ -12661,7 +12661,7 @@
         <v>10.61</v>
       </c>
       <c r="C877">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D877">
         <v>0</v>
@@ -12675,7 +12675,7 @@
         <v>10.11</v>
       </c>
       <c r="C878">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D878">
         <v>0</v>
@@ -12703,7 +12703,7 @@
         <v>9.109999999999999</v>
       </c>
       <c r="C880">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="D880">
         <v>0</v>
@@ -12717,7 +12717,7 @@
         <v>8.609999999999999</v>
       </c>
       <c r="C881">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="D881">
         <v>0</v>
@@ -12731,7 +12731,7 @@
         <v>8.109999999999999</v>
       </c>
       <c r="C882">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="D882">
         <v>0</v>
@@ -12759,7 +12759,7 @@
         <v>7.08</v>
       </c>
       <c r="C884">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="D884">
         <v>0</v>
@@ -12787,7 +12787,7 @@
         <v>6.06</v>
       </c>
       <c r="C886">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="D886">
         <v>0</v>
@@ -12801,7 +12801,7 @@
         <v>5.56</v>
       </c>
       <c r="C887">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="D887">
         <v>0</v>
@@ -12815,7 +12815,7 @@
         <v>5.05</v>
       </c>
       <c r="C888">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="D888">
         <v>0</v>
@@ -12829,7 +12829,7 @@
         <v>4.54</v>
       </c>
       <c r="C889">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="D889">
         <v>0</v>
@@ -12843,7 +12843,7 @@
         <v>4.04</v>
       </c>
       <c r="C890">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="D890">
         <v>0</v>
@@ -12899,7 +12899,7 @@
         <v>2.37</v>
       </c>
       <c r="C894">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="D894">
         <v>0.05</v>
@@ -12955,7 +12955,7 @@
         <v>1.39</v>
       </c>
       <c r="C898">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="D898">
         <v>0.05</v>
@@ -12969,7 +12969,7 @@
         <v>1.21</v>
       </c>
       <c r="C899">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="D899">
         <v>0.05</v>
@@ -12983,7 +12983,7 @@
         <v>1.06</v>
       </c>
       <c r="C900">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="D900">
         <v>0.05</v>
@@ -12997,7 +12997,7 @@
         <v>0.93</v>
       </c>
       <c r="C901">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="D901">
         <v>0.05</v>
@@ -13011,7 +13011,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="C902">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="D902">
         <v>0.05</v>
@@ -13025,7 +13025,7 @@
         <v>0.71</v>
       </c>
       <c r="C903">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="D903">
         <v>0.05</v>
@@ -13039,7 +13039,7 @@
         <v>0.62</v>
       </c>
       <c r="C904">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="D904">
         <v>0.05</v>
@@ -13081,7 +13081,7 @@
         <v>0.42</v>
       </c>
       <c r="C907">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="D907">
         <v>0.05</v>
@@ -13095,7 +13095,7 @@
         <v>0.36</v>
       </c>
       <c r="C908">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="D908">
         <v>0.05</v>
@@ -13109,7 +13109,7 @@
         <v>0.32</v>
       </c>
       <c r="C909">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="D909">
         <v>0.05</v>
@@ -13137,7 +13137,7 @@
         <v>0.24</v>
       </c>
       <c r="C911">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="D911">
         <v>0.05</v>
@@ -13151,7 +13151,7 @@
         <v>0.21</v>
       </c>
       <c r="C912">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="D912">
         <v>0.05</v>
@@ -13165,7 +13165,7 @@
         <v>0.19</v>
       </c>
       <c r="C913">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="D913">
         <v>0.05</v>
@@ -13179,7 +13179,7 @@
         <v>0.16</v>
       </c>
       <c r="C914">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="D914">
         <v>0.05</v>
@@ -13193,7 +13193,7 @@
         <v>0.14</v>
       </c>
       <c r="C915">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="D915">
         <v>0.05</v>
@@ -13221,7 +13221,7 @@
         <v>0.11</v>
       </c>
       <c r="C917">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="D917">
         <v>0.05</v>
@@ -13235,7 +13235,7 @@
         <v>0.1</v>
       </c>
       <c r="C918">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="D918">
         <v>0.05</v>
@@ -13249,7 +13249,7 @@
         <v>0.08</v>
       </c>
       <c r="C919">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="D919">
         <v>0.05</v>
@@ -13263,7 +13263,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="C920">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="D920">
         <v>0.05</v>
@@ -13277,7 +13277,7 @@
         <v>0.06</v>
       </c>
       <c r="C921">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="D921">
         <v>0.05</v>
@@ -13291,7 +13291,7 @@
         <v>0.06</v>
       </c>
       <c r="C922">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="D922">
         <v>0.05</v>
@@ -13319,7 +13319,7 @@
         <v>0.04</v>
       </c>
       <c r="C924">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="D924">
         <v>0.05</v>
@@ -13333,7 +13333,7 @@
         <v>0.04</v>
       </c>
       <c r="C925">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="D925">
         <v>0.05</v>
@@ -13361,7 +13361,7 @@
         <v>0.03</v>
       </c>
       <c r="C927">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="D927">
         <v>0.05</v>
@@ -13375,7 +13375,7 @@
         <v>0.03</v>
       </c>
       <c r="C928">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="D928">
         <v>0.05</v>
@@ -13445,7 +13445,7 @@
         <v>0.01</v>
       </c>
       <c r="C933">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="D933">
         <v>0.05</v>
@@ -13473,7 +13473,7 @@
         <v>0.01</v>
       </c>
       <c r="C935">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="D935">
         <v>0.05</v>
@@ -13487,7 +13487,7 @@
         <v>0.01</v>
       </c>
       <c r="C936">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="D936">
         <v>0.05</v>
@@ -13501,7 +13501,7 @@
         <v>0.01</v>
       </c>
       <c r="C937">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="D937">
         <v>0.05</v>
@@ -13515,7 +13515,7 @@
         <v>0.01</v>
       </c>
       <c r="C938">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="D938">
         <v>0.05</v>
@@ -13557,7 +13557,7 @@
         <v>0</v>
       </c>
       <c r="C941">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="D941">
         <v>0.05</v>
@@ -13585,7 +13585,7 @@
         <v>0</v>
       </c>
       <c r="C943">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="D943">
         <v>0.05</v>
@@ -13599,7 +13599,7 @@
         <v>0</v>
       </c>
       <c r="C944">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="D944">
         <v>0.05</v>
@@ -13627,7 +13627,7 @@
         <v>0</v>
       </c>
       <c r="C946">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="D946">
         <v>0.05</v>
@@ -13641,7 +13641,7 @@
         <v>0</v>
       </c>
       <c r="C947">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="D947">
         <v>0.05</v>
@@ -13669,7 +13669,7 @@
         <v>0</v>
       </c>
       <c r="C949">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="D949">
         <v>0.05</v>
@@ -13683,7 +13683,7 @@
         <v>0</v>
       </c>
       <c r="C950">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D950">
         <v>0.05</v>
@@ -13711,7 +13711,7 @@
         <v>0</v>
       </c>
       <c r="C952">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="D952">
         <v>0.05</v>
@@ -13725,7 +13725,7 @@
         <v>0</v>
       </c>
       <c r="C953">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="D953">
         <v>0.05</v>
@@ -13753,7 +13753,7 @@
         <v>0</v>
       </c>
       <c r="C955">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D955">
         <v>0.05</v>
@@ -13767,7 +13767,7 @@
         <v>0</v>
       </c>
       <c r="C956">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D956">
         <v>0.05</v>
@@ -13781,7 +13781,7 @@
         <v>0</v>
       </c>
       <c r="C957">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D957">
         <v>0.05</v>
@@ -13795,7 +13795,7 @@
         <v>0</v>
       </c>
       <c r="C958">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="D958">
         <v>0.05</v>
@@ -13809,7 +13809,7 @@
         <v>0</v>
       </c>
       <c r="C959">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D959">
         <v>0.05</v>
@@ -14008,7 +14008,7 @@
         <v>0</v>
       </c>
       <c r="D973">
-        <v>0.29</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="974" spans="1:4">
@@ -14022,7 +14022,7 @@
         <v>0</v>
       </c>
       <c r="D974">
-        <v>0.47</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="975" spans="1:4">
@@ -14036,7 +14036,7 @@
         <v>0</v>
       </c>
       <c r="D975">
-        <v>0.6</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="976" spans="1:4">
@@ -14050,7 +14050,7 @@
         <v>0</v>
       </c>
       <c r="D976">
-        <v>0.7</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="977" spans="1:4">
@@ -14064,7 +14064,7 @@
         <v>0</v>
       </c>
       <c r="D977">
-        <v>0.78</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="978" spans="1:4">
@@ -14078,7 +14078,7 @@
         <v>0</v>
       </c>
       <c r="D978">
-        <v>0.84</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="979" spans="1:4">
@@ -14092,7 +14092,7 @@
         <v>0</v>
       </c>
       <c r="D979">
-        <v>0.88</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="980" spans="1:4">
@@ -14106,7 +14106,7 @@
         <v>0</v>
       </c>
       <c r="D980">
-        <v>0.9</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="981" spans="1:4">
@@ -14120,7 +14120,7 @@
         <v>0</v>
       </c>
       <c r="D981">
-        <v>0.9399999999999999</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="982" spans="1:4">
@@ -14134,7 +14134,7 @@
         <v>0</v>
       </c>
       <c r="D982">
-        <v>0.96</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="983" spans="1:4">
@@ -14148,7 +14148,7 @@
         <v>0</v>
       </c>
       <c r="D983">
-        <v>0.95</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="984" spans="1:4">
@@ -14162,7 +14162,7 @@
         <v>0</v>
       </c>
       <c r="D984">
-        <v>0.96</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="985" spans="1:4">
@@ -14176,7 +14176,7 @@
         <v>0</v>
       </c>
       <c r="D985">
-        <v>0.97</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="986" spans="1:4">
@@ -14190,7 +14190,7 @@
         <v>0</v>
       </c>
       <c r="D986">
-        <v>0.96</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="987" spans="1:4">
@@ -14204,7 +14204,7 @@
         <v>0</v>
       </c>
       <c r="D987">
-        <v>0.96</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="988" spans="1:4">
@@ -14218,7 +14218,7 @@
         <v>0</v>
       </c>
       <c r="D988">
-        <v>0.98</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="989" spans="1:4">
@@ -14232,7 +14232,7 @@
         <v>0</v>
       </c>
       <c r="D989">
-        <v>0.97</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="990" spans="1:4">
@@ -14246,7 +14246,7 @@
         <v>0</v>
       </c>
       <c r="D990">
-        <v>0.98</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="991" spans="1:4">
@@ -14260,7 +14260,7 @@
         <v>0</v>
       </c>
       <c r="D991">
-        <v>0.99</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="992" spans="1:4">
@@ -14274,7 +14274,7 @@
         <v>0</v>
       </c>
       <c r="D992">
-        <v>0.99</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="993" spans="1:4">
@@ -14288,7 +14288,7 @@
         <v>0</v>
       </c>
       <c r="D993">
-        <v>0.99</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="994" spans="1:4">
@@ -14302,7 +14302,7 @@
         <v>0</v>
       </c>
       <c r="D994">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="995" spans="1:4">
@@ -14316,7 +14316,7 @@
         <v>0</v>
       </c>
       <c r="D995">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="996" spans="1:4">
@@ -14330,7 +14330,7 @@
         <v>0</v>
       </c>
       <c r="D996">
-        <v>0.98</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="997" spans="1:4">
@@ -14344,7 +14344,7 @@
         <v>0</v>
       </c>
       <c r="D997">
-        <v>0.98</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="998" spans="1:4">
@@ -14358,7 +14358,7 @@
         <v>0</v>
       </c>
       <c r="D998">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="999" spans="1:4">
@@ -14372,7 +14372,7 @@
         <v>0</v>
       </c>
       <c r="D999">
-        <v>0.99</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="1000" spans="1:4">
@@ -14386,7 +14386,7 @@
         <v>0</v>
       </c>
       <c r="D1000">
-        <v>0.99</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="1001" spans="1:4">
@@ -14400,7 +14400,7 @@
         <v>0</v>
       </c>
       <c r="D1001">
-        <v>1</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="1002" spans="1:4">
@@ -14414,7 +14414,7 @@
         <v>0</v>
       </c>
       <c r="D1002">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="1003" spans="1:4">
@@ -14428,7 +14428,7 @@
         <v>0</v>
       </c>
       <c r="D1003">
-        <v>0.99</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="1004" spans="1:4">
@@ -14442,7 +14442,7 @@
         <v>0</v>
       </c>
       <c r="D1004">
-        <v>0.99</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="1005" spans="1:4">
@@ -14456,7 +14456,7 @@
         <v>0</v>
       </c>
       <c r="D1005">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="1006" spans="1:4">
@@ -14470,7 +14470,7 @@
         <v>0</v>
       </c>
       <c r="D1006">
-        <v>0.99</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="1007" spans="1:4">
@@ -14484,7 +14484,7 @@
         <v>0</v>
       </c>
       <c r="D1007">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="1008" spans="1:4">
@@ -14498,7 +14498,7 @@
         <v>0</v>
       </c>
       <c r="D1008">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="1009" spans="1:4">
@@ -14512,7 +14512,7 @@
         <v>0</v>
       </c>
       <c r="D1009">
-        <v>0.99</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="1010" spans="1:4">
@@ -14526,7 +14526,7 @@
         <v>0</v>
       </c>
       <c r="D1010">
-        <v>0.98</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="1011" spans="1:4">
@@ -14540,7 +14540,7 @@
         <v>0</v>
       </c>
       <c r="D1011">
-        <v>1</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="1012" spans="1:4">
@@ -14554,7 +14554,7 @@
         <v>0</v>
       </c>
       <c r="D1012">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="1013" spans="1:4">
@@ -14568,7 +14568,7 @@
         <v>0</v>
       </c>
       <c r="D1013">
-        <v>0.99</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="1014" spans="1:4">
@@ -14582,7 +14582,7 @@
         <v>0</v>
       </c>
       <c r="D1014">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="1015" spans="1:4">
@@ -14596,7 +14596,7 @@
         <v>0</v>
       </c>
       <c r="D1015">
-        <v>1</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="1016" spans="1:4">
@@ -14610,7 +14610,7 @@
         <v>0</v>
       </c>
       <c r="D1016">
-        <v>0.98</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="1017" spans="1:4">
@@ -14624,7 +14624,7 @@
         <v>0</v>
       </c>
       <c r="D1017">
-        <v>0.99</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="1018" spans="1:4">
@@ -14638,7 +14638,7 @@
         <v>0</v>
       </c>
       <c r="D1018">
-        <v>1</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="1019" spans="1:4">
@@ -14652,7 +14652,7 @@
         <v>0</v>
       </c>
       <c r="D1019">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="1020" spans="1:4">
@@ -14666,7 +14666,7 @@
         <v>0</v>
       </c>
       <c r="D1020">
-        <v>0.99</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="1021" spans="1:4">
@@ -14680,7 +14680,7 @@
         <v>0</v>
       </c>
       <c r="D1021">
-        <v>1</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="1022" spans="1:4">
@@ -14694,7 +14694,7 @@
         <v>0</v>
       </c>
       <c r="D1022">
-        <v>1</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="1023" spans="1:4">
@@ -14708,7 +14708,7 @@
         <v>0</v>
       </c>
       <c r="D1023">
-        <v>0.99</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="1024" spans="1:4">
@@ -14722,7 +14722,7 @@
         <v>0</v>
       </c>
       <c r="D1024">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="1025" spans="1:4">
@@ -14736,7 +14736,7 @@
         <v>0</v>
       </c>
       <c r="D1025">
-        <v>1</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="1026" spans="1:4">
@@ -14750,7 +14750,7 @@
         <v>0</v>
       </c>
       <c r="D1026">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="1027" spans="1:4">
@@ -14764,7 +14764,7 @@
         <v>0</v>
       </c>
       <c r="D1027">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="1028" spans="1:4">
@@ -14778,7 +14778,7 @@
         <v>0</v>
       </c>
       <c r="D1028">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="1029" spans="1:4">
@@ -14792,7 +14792,7 @@
         <v>0</v>
       </c>
       <c r="D1029">
-        <v>1</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="1030" spans="1:4">
@@ -14806,7 +14806,7 @@
         <v>0</v>
       </c>
       <c r="D1030">
-        <v>0.99</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="1031" spans="1:4">
@@ -14820,7 +14820,7 @@
         <v>0</v>
       </c>
       <c r="D1031">
-        <v>1</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="1032" spans="1:4">
@@ -14834,7 +14834,7 @@
         <v>0</v>
       </c>
       <c r="D1032">
-        <v>1</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="1033" spans="1:4">
@@ -14848,7 +14848,7 @@
         <v>0</v>
       </c>
       <c r="D1033">
-        <v>0.99</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="1034" spans="1:4">
@@ -14862,7 +14862,7 @@
         <v>0</v>
       </c>
       <c r="D1034">
-        <v>0.99</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="1035" spans="1:4">
@@ -14876,7 +14876,7 @@
         <v>0</v>
       </c>
       <c r="D1035">
-        <v>0.9</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="1036" spans="1:4">
@@ -14890,7 +14890,7 @@
         <v>0</v>
       </c>
       <c r="D1036">
-        <v>0.76</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="1037" spans="1:4">
@@ -14904,7 +14904,7 @@
         <v>0</v>
       </c>
       <c r="D1037">
-        <v>0.6</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="1038" spans="1:4">
@@ -14918,7 +14918,7 @@
         <v>0</v>
       </c>
       <c r="D1038">
-        <v>0.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1039" spans="1:4">
@@ -14932,7 +14932,7 @@
         <v>0</v>
       </c>
       <c r="D1039">
-        <v>0.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1040" spans="1:4">
@@ -14946,7 +14946,7 @@
         <v>0.09</v>
       </c>
       <c r="D1040">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1041" spans="1:4">
@@ -14957,10 +14957,10 @@
         <v>46.62</v>
       </c>
       <c r="C1041">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="D1041">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1042" spans="1:4">
@@ -14974,7 +14974,7 @@
         <v>0.29</v>
       </c>
       <c r="D1042">
-        <v>0.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1043" spans="1:4">
@@ -14985,10 +14985,10 @@
         <v>46.16</v>
       </c>
       <c r="C1043">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="D1043">
-        <v>0.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1044" spans="1:4">
@@ -14999,10 +14999,10 @@
         <v>45.88</v>
       </c>
       <c r="C1044">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="D1044">
-        <v>0.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1045" spans="1:4">
@@ -15013,10 +15013,10 @@
         <v>45.57</v>
       </c>
       <c r="C1045">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="D1045">
-        <v>0.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1046" spans="1:4">
@@ -15030,7 +15030,7 @@
         <v>0.65</v>
       </c>
       <c r="D1046">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1047" spans="1:4">
@@ -15044,7 +15044,7 @@
         <v>0.7</v>
       </c>
       <c r="D1047">
-        <v>0.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1048" spans="1:4">
@@ -15058,7 +15058,7 @@
         <v>0.73</v>
       </c>
       <c r="D1048">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1049" spans="1:4">
@@ -15069,10 +15069,10 @@
         <v>44.12</v>
       </c>
       <c r="C1049">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="D1049">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1050" spans="1:4">
@@ -15086,7 +15086,7 @@
         <v>0.77</v>
       </c>
       <c r="D1050">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1051" spans="1:4">
@@ -15097,10 +15097,10 @@
         <v>43.3</v>
       </c>
       <c r="C1051">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="D1051">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1052" spans="1:4">
@@ -15111,7 +15111,7 @@
         <v>42.88</v>
       </c>
       <c r="C1052">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="D1052">
         <v>0</v>
@@ -15125,10 +15125,10 @@
         <v>42.44</v>
       </c>
       <c r="C1053">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="D1053">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1054" spans="1:4">
@@ -15139,10 +15139,10 @@
         <v>42</v>
       </c>
       <c r="C1054">
-        <v>0.77</v>
+        <v>0.8</v>
       </c>
       <c r="D1054">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1055" spans="1:4">
@@ -15156,7 +15156,7 @@
         <v>0.79</v>
       </c>
       <c r="D1055">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1056" spans="1:4">
@@ -15167,10 +15167,10 @@
         <v>41.09</v>
       </c>
       <c r="C1056">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="D1056">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1057" spans="1:4">
@@ -15181,10 +15181,10 @@
         <v>40.63</v>
       </c>
       <c r="C1057">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="D1057">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1058" spans="1:4">
@@ -15195,10 +15195,10 @@
         <v>40.17</v>
       </c>
       <c r="C1058">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="D1058">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1059" spans="1:4">
@@ -15212,7 +15212,7 @@
         <v>0.8</v>
       </c>
       <c r="D1059">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1060" spans="1:4">
@@ -15226,7 +15226,7 @@
         <v>0.8</v>
       </c>
       <c r="D1060">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1061" spans="1:4">
@@ -15237,7 +15237,7 @@
         <v>38.74</v>
       </c>
       <c r="C1061">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="D1061">
         <v>0</v>
@@ -15254,7 +15254,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="D1062">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1063" spans="1:4">
@@ -15265,10 +15265,10 @@
         <v>37.77</v>
       </c>
       <c r="C1063">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D1063">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1064" spans="1:4">
@@ -15282,7 +15282,7 @@
         <v>0.8</v>
       </c>
       <c r="D1064">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1065" spans="1:4">
@@ -15293,10 +15293,10 @@
         <v>36.77</v>
       </c>
       <c r="C1065">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D1065">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1066" spans="1:4">
@@ -15321,7 +15321,7 @@
         <v>35.78</v>
       </c>
       <c r="C1067">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D1067">
         <v>0</v>
@@ -15335,7 +15335,7 @@
         <v>35.28</v>
       </c>
       <c r="C1068">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="D1068">
         <v>0</v>
@@ -15377,7 +15377,7 @@
         <v>33.79</v>
       </c>
       <c r="C1071">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="D1071">
         <v>0</v>
@@ -15391,7 +15391,7 @@
         <v>33.29</v>
       </c>
       <c r="C1072">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="D1072">
         <v>0</v>
@@ -15405,7 +15405,7 @@
         <v>32.79</v>
       </c>
       <c r="C1073">
-        <v>0.77</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D1073">
         <v>0</v>
@@ -15419,7 +15419,7 @@
         <v>32.29</v>
       </c>
       <c r="C1074">
-        <v>0.77</v>
+        <v>0.8</v>
       </c>
       <c r="D1074">
         <v>0</v>
@@ -15433,7 +15433,7 @@
         <v>31.79</v>
       </c>
       <c r="C1075">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="D1075">
         <v>0</v>
@@ -15447,7 +15447,7 @@
         <v>31.29</v>
       </c>
       <c r="C1076">
-        <v>0.78</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D1076">
         <v>0</v>
@@ -15461,7 +15461,7 @@
         <v>30.79</v>
       </c>
       <c r="C1077">
-        <v>0.78</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D1077">
         <v>0</v>
@@ -15475,7 +15475,7 @@
         <v>30.3</v>
       </c>
       <c r="C1078">
-        <v>0.78</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D1078">
         <v>0</v>
@@ -15489,7 +15489,7 @@
         <v>29.8</v>
       </c>
       <c r="C1079">
-        <v>0.79</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D1079">
         <v>0</v>
@@ -15503,7 +15503,7 @@
         <v>29.3</v>
       </c>
       <c r="C1080">
-        <v>0.79</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D1080">
         <v>0</v>
@@ -15517,7 +15517,7 @@
         <v>28.8</v>
       </c>
       <c r="C1081">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="D1081">
         <v>0</v>
@@ -15531,7 +15531,7 @@
         <v>28.3</v>
       </c>
       <c r="C1082">
-        <v>0.79</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D1082">
         <v>0</v>
@@ -15545,7 +15545,7 @@
         <v>27.79</v>
       </c>
       <c r="C1083">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="D1083">
         <v>0</v>
@@ -15573,7 +15573,7 @@
         <v>26.77</v>
       </c>
       <c r="C1085">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="D1085">
         <v>0</v>
@@ -15587,7 +15587,7 @@
         <v>26.26</v>
       </c>
       <c r="C1086">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D1086">
         <v>0</v>
@@ -15601,7 +15601,7 @@
         <v>25.75</v>
       </c>
       <c r="C1087">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D1087">
         <v>0</v>
@@ -15615,7 +15615,7 @@
         <v>25.24</v>
       </c>
       <c r="C1088">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D1088">
         <v>0</v>
@@ -15643,7 +15643,7 @@
         <v>24.23</v>
       </c>
       <c r="C1090">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="D1090">
         <v>0</v>
@@ -15657,7 +15657,7 @@
         <v>23.73</v>
       </c>
       <c r="C1091">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="D1091">
         <v>0</v>
@@ -15699,7 +15699,7 @@
         <v>22.22</v>
       </c>
       <c r="C1094">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="D1094">
         <v>0</v>
@@ -15713,7 +15713,7 @@
         <v>21.72</v>
       </c>
       <c r="C1095">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="D1095">
         <v>0</v>
@@ -15741,7 +15741,7 @@
         <v>20.71</v>
       </c>
       <c r="C1097">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="D1097">
         <v>0</v>
@@ -15769,7 +15769,7 @@
         <v>19.71</v>
       </c>
       <c r="C1099">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="D1099">
         <v>0</v>
@@ -15783,7 +15783,7 @@
         <v>19.21</v>
       </c>
       <c r="C1100">
-        <v>0.79</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D1100">
         <v>0</v>
@@ -15797,7 +15797,7 @@
         <v>18.71</v>
       </c>
       <c r="C1101">
-        <v>0.79</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D1101">
         <v>0</v>
@@ -15811,7 +15811,7 @@
         <v>18.21</v>
       </c>
       <c r="C1102">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D1102">
         <v>0</v>
@@ -15825,7 +15825,7 @@
         <v>17.69</v>
       </c>
       <c r="C1103">
-        <v>0.79</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D1103">
         <v>0</v>
@@ -15839,7 +15839,7 @@
         <v>17.18</v>
       </c>
       <c r="C1104">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="D1104">
         <v>0</v>
@@ -15853,7 +15853,7 @@
         <v>16.67</v>
       </c>
       <c r="C1105">
-        <v>0.78</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D1105">
         <v>0</v>
@@ -15867,7 +15867,7 @@
         <v>16.16</v>
       </c>
       <c r="C1106">
-        <v>0.79</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D1106">
         <v>0</v>
@@ -15881,7 +15881,7 @@
         <v>15.65</v>
       </c>
       <c r="C1107">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="D1107">
         <v>0</v>
@@ -15895,7 +15895,7 @@
         <v>15.15</v>
       </c>
       <c r="C1108">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="D1108">
         <v>0</v>
@@ -15951,7 +15951,7 @@
         <v>13.13</v>
       </c>
       <c r="C1112">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="D1112">
         <v>0</v>
@@ -15965,7 +15965,7 @@
         <v>12.62</v>
       </c>
       <c r="C1113">
-        <v>0.79</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D1113">
         <v>0</v>
@@ -15979,7 +15979,7 @@
         <v>12.12</v>
       </c>
       <c r="C1114">
-        <v>0.79</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D1114">
         <v>0</v>
@@ -15993,7 +15993,7 @@
         <v>11.62</v>
       </c>
       <c r="C1115">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="D1115">
         <v>0</v>
@@ -16021,7 +16021,7 @@
         <v>10.61</v>
       </c>
       <c r="C1117">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
       <c r="D1117">
         <v>0</v>
@@ -16035,7 +16035,7 @@
         <v>10.11</v>
       </c>
       <c r="C1118">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="D1118">
         <v>0</v>
@@ -16049,7 +16049,7 @@
         <v>9.609999999999999</v>
       </c>
       <c r="C1119">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="D1119">
         <v>0</v>
@@ -16063,7 +16063,7 @@
         <v>9.109999999999999</v>
       </c>
       <c r="C1120">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="D1120">
         <v>0</v>
@@ -16091,7 +16091,7 @@
         <v>8.109999999999999</v>
       </c>
       <c r="C1122">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="D1122">
         <v>0</v>
@@ -16105,7 +16105,7 @@
         <v>7.59</v>
       </c>
       <c r="C1123">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="D1123">
         <v>0</v>
@@ -16119,7 +16119,7 @@
         <v>7.08</v>
       </c>
       <c r="C1124">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="D1124">
         <v>0</v>
@@ -16133,7 +16133,7 @@
         <v>6.57</v>
       </c>
       <c r="C1125">
-        <v>0.79</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D1125">
         <v>0</v>
@@ -16147,7 +16147,7 @@
         <v>6.06</v>
       </c>
       <c r="C1126">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="D1126">
         <v>0</v>
@@ -16175,7 +16175,7 @@
         <v>5.05</v>
       </c>
       <c r="C1128">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D1128">
         <v>0</v>
@@ -16203,7 +16203,7 @@
         <v>4.04</v>
       </c>
       <c r="C1130">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="D1130">
         <v>0</v>
@@ -16217,7 +16217,7 @@
         <v>3.53</v>
       </c>
       <c r="C1131">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="D1131">
         <v>0.05</v>
@@ -16231,7 +16231,7 @@
         <v>3.09</v>
       </c>
       <c r="C1132">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="D1132">
         <v>0.05</v>
@@ -16245,7 +16245,7 @@
         <v>2.7</v>
       </c>
       <c r="C1133">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="D1133">
         <v>0.05</v>
@@ -16273,7 +16273,7 @@
         <v>2.07</v>
       </c>
       <c r="C1135">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="D1135">
         <v>0.05</v>
@@ -16301,7 +16301,7 @@
         <v>1.59</v>
       </c>
       <c r="C1137">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="D1137">
         <v>0.05</v>
@@ -16329,7 +16329,7 @@
         <v>1.21</v>
       </c>
       <c r="C1139">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="D1139">
         <v>0.05</v>
@@ -16343,7 +16343,7 @@
         <v>1.06</v>
       </c>
       <c r="C1140">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="D1140">
         <v>0.05</v>
@@ -16357,7 +16357,7 @@
         <v>0.93</v>
       </c>
       <c r="C1141">
-        <v>0.22</v>
+        <v>0.19</v>
       </c>
       <c r="D1141">
         <v>0.05</v>
@@ -16371,7 +16371,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="C1142">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="D1142">
         <v>0.05</v>
@@ -16385,7 +16385,7 @@
         <v>0.71</v>
       </c>
       <c r="C1143">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="D1143">
         <v>0.05</v>
@@ -16399,7 +16399,7 @@
         <v>0.62</v>
       </c>
       <c r="C1144">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="D1144">
         <v>0.05</v>
@@ -16413,7 +16413,7 @@
         <v>0.54</v>
       </c>
       <c r="C1145">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="D1145">
         <v>0.05</v>
@@ -16427,7 +16427,7 @@
         <v>0.48</v>
       </c>
       <c r="C1146">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="D1146">
         <v>0.05</v>
@@ -16441,7 +16441,7 @@
         <v>0.42</v>
       </c>
       <c r="C1147">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="D1147">
         <v>0.05</v>
@@ -16455,7 +16455,7 @@
         <v>0.36</v>
       </c>
       <c r="C1148">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="D1148">
         <v>0.05</v>
@@ -16469,7 +16469,7 @@
         <v>0.32</v>
       </c>
       <c r="C1149">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="D1149">
         <v>0.05</v>
@@ -16483,7 +16483,7 @@
         <v>0.28</v>
       </c>
       <c r="C1150">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="D1150">
         <v>0.05</v>
@@ -16525,7 +16525,7 @@
         <v>0.19</v>
       </c>
       <c r="C1153">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="D1153">
         <v>0.05</v>
@@ -16539,7 +16539,7 @@
         <v>0.16</v>
       </c>
       <c r="C1154">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="D1154">
         <v>0.05</v>
@@ -16553,7 +16553,7 @@
         <v>0.14</v>
       </c>
       <c r="C1155">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="D1155">
         <v>0.05</v>
@@ -16567,7 +16567,7 @@
         <v>0.13</v>
       </c>
       <c r="C1156">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="D1156">
         <v>0.05</v>
@@ -16623,7 +16623,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="C1160">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="D1160">
         <v>0.05</v>
@@ -16651,7 +16651,7 @@
         <v>0.06</v>
       </c>
       <c r="C1162">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="D1162">
         <v>0.05</v>
@@ -16665,7 +16665,7 @@
         <v>0.05</v>
       </c>
       <c r="C1163">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="D1163">
         <v>0.05</v>
@@ -16679,7 +16679,7 @@
         <v>0.04</v>
       </c>
       <c r="C1164">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="D1164">
         <v>0.05</v>
@@ -16693,7 +16693,7 @@
         <v>0.04</v>
       </c>
       <c r="C1165">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="D1165">
         <v>0.05</v>
@@ -16707,7 +16707,7 @@
         <v>0.03</v>
       </c>
       <c r="C1166">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="D1166">
         <v>0.05</v>
@@ -16721,7 +16721,7 @@
         <v>0.03</v>
       </c>
       <c r="C1167">
-        <v>0.22</v>
+        <v>0.19</v>
       </c>
       <c r="D1167">
         <v>0.05</v>
@@ -16735,7 +16735,7 @@
         <v>0.03</v>
       </c>
       <c r="C1168">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="D1168">
         <v>0.05</v>
@@ -16749,7 +16749,7 @@
         <v>0.02</v>
       </c>
       <c r="C1169">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="D1169">
         <v>0.05</v>
@@ -16763,7 +16763,7 @@
         <v>0.02</v>
       </c>
       <c r="C1170">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="D1170">
         <v>0.05</v>
@@ -16791,7 +16791,7 @@
         <v>0.01</v>
       </c>
       <c r="C1172">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="D1172">
         <v>0.05</v>
@@ -16805,7 +16805,7 @@
         <v>0.01</v>
       </c>
       <c r="C1173">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="D1173">
         <v>0.05</v>
@@ -16819,7 +16819,7 @@
         <v>0.01</v>
       </c>
       <c r="C1174">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
       <c r="D1174">
         <v>0.05</v>
@@ -16833,7 +16833,7 @@
         <v>0.01</v>
       </c>
       <c r="C1175">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="D1175">
         <v>0.05</v>
@@ -16847,7 +16847,7 @@
         <v>0.01</v>
       </c>
       <c r="C1176">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="D1176">
         <v>0.05</v>
@@ -16861,7 +16861,7 @@
         <v>0.01</v>
       </c>
       <c r="C1177">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="D1177">
         <v>0.05</v>
@@ -16903,7 +16903,7 @@
         <v>0.01</v>
       </c>
       <c r="C1180">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="D1180">
         <v>0.05</v>
@@ -16973,7 +16973,7 @@
         <v>0</v>
       </c>
       <c r="C1185">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="D1185">
         <v>0.05</v>
@@ -17015,7 +17015,7 @@
         <v>0</v>
       </c>
       <c r="C1188">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="D1188">
         <v>0.05</v>
@@ -17029,7 +17029,7 @@
         <v>0</v>
       </c>
       <c r="C1189">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="D1189">
         <v>0.05</v>
@@ -17043,7 +17043,7 @@
         <v>0</v>
       </c>
       <c r="C1190">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="D1190">
         <v>0.05</v>
@@ -17057,7 +17057,7 @@
         <v>0</v>
       </c>
       <c r="C1191">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="D1191">
         <v>0.05</v>
@@ -17071,7 +17071,7 @@
         <v>0</v>
       </c>
       <c r="C1192">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D1192">
         <v>0.05</v>
@@ -17099,7 +17099,7 @@
         <v>0</v>
       </c>
       <c r="C1194">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D1194">
         <v>0.05</v>
@@ -17113,7 +17113,7 @@
         <v>0</v>
       </c>
       <c r="C1195">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D1195">
         <v>0.05</v>
@@ -17127,7 +17127,7 @@
         <v>0</v>
       </c>
       <c r="C1196">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D1196">
         <v>0.05</v>
@@ -17368,7 +17368,7 @@
         <v>0</v>
       </c>
       <c r="D1213">
-        <v>0.28</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="1214" spans="1:4">
@@ -17382,7 +17382,7 @@
         <v>0</v>
       </c>
       <c r="D1214">
-        <v>0.47</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="1215" spans="1:4">
@@ -17396,7 +17396,7 @@
         <v>0</v>
       </c>
       <c r="D1215">
-        <v>0.6</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="1216" spans="1:4">
@@ -17410,7 +17410,7 @@
         <v>0</v>
       </c>
       <c r="D1216">
-        <v>0.6899999999999999</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="1217" spans="1:4">
@@ -17424,7 +17424,7 @@
         <v>0</v>
       </c>
       <c r="D1217">
-        <v>0.76</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1218" spans="1:4">
@@ -17438,7 +17438,7 @@
         <v>0</v>
       </c>
       <c r="D1218">
-        <v>0.83</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="1219" spans="1:4">
@@ -17452,7 +17452,7 @@
         <v>0</v>
       </c>
       <c r="D1219">
-        <v>0.87</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="1220" spans="1:4">
@@ -17466,7 +17466,7 @@
         <v>0</v>
       </c>
       <c r="D1220">
-        <v>0.89</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="1221" spans="1:4">
@@ -17480,7 +17480,7 @@
         <v>0</v>
       </c>
       <c r="D1221">
-        <v>0.9399999999999999</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="1222" spans="1:4">
@@ -17494,7 +17494,7 @@
         <v>0</v>
       </c>
       <c r="D1222">
-        <v>0.95</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="1223" spans="1:4">
@@ -17508,7 +17508,7 @@
         <v>0</v>
       </c>
       <c r="D1223">
-        <v>0.95</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="1224" spans="1:4">
@@ -17522,7 +17522,7 @@
         <v>0</v>
       </c>
       <c r="D1224">
-        <v>0.97</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="1225" spans="1:4">
@@ -17536,7 +17536,7 @@
         <v>0</v>
       </c>
       <c r="D1225">
-        <v>0.98</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="1226" spans="1:4">
@@ -17550,7 +17550,7 @@
         <v>0</v>
       </c>
       <c r="D1226">
-        <v>0.98</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="1227" spans="1:4">
@@ -17564,7 +17564,7 @@
         <v>0</v>
       </c>
       <c r="D1227">
-        <v>0.99</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="1228" spans="1:4">
@@ -17578,7 +17578,7 @@
         <v>0</v>
       </c>
       <c r="D1228">
-        <v>1</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="1229" spans="1:4">
@@ -17592,7 +17592,7 @@
         <v>0</v>
       </c>
       <c r="D1229">
-        <v>1</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="1230" spans="1:4">
@@ -17606,7 +17606,7 @@
         <v>0</v>
       </c>
       <c r="D1230">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="1231" spans="1:4">
@@ -17620,7 +17620,7 @@
         <v>0</v>
       </c>
       <c r="D1231">
-        <v>1</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="1232" spans="1:4">
@@ -17634,7 +17634,7 @@
         <v>0</v>
       </c>
       <c r="D1232">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="1233" spans="1:4">
@@ -17648,7 +17648,7 @@
         <v>0</v>
       </c>
       <c r="D1233">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="1234" spans="1:4">
@@ -17662,7 +17662,7 @@
         <v>0</v>
       </c>
       <c r="D1234">
-        <v>1</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="1235" spans="1:4">
@@ -17676,7 +17676,7 @@
         <v>0</v>
       </c>
       <c r="D1235">
-        <v>1</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="1236" spans="1:4">
@@ -17690,7 +17690,7 @@
         <v>0</v>
       </c>
       <c r="D1236">
-        <v>0.99</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="1237" spans="1:4">
@@ -17704,7 +17704,7 @@
         <v>0</v>
       </c>
       <c r="D1237">
-        <v>0.99</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="1238" spans="1:4">
@@ -17718,7 +17718,7 @@
         <v>0</v>
       </c>
       <c r="D1238">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="1239" spans="1:4">
@@ -17732,7 +17732,7 @@
         <v>0</v>
       </c>
       <c r="D1239">
-        <v>0.99</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="1240" spans="1:4">
@@ -17746,7 +17746,7 @@
         <v>0</v>
       </c>
       <c r="D1240">
-        <v>0.98</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="1241" spans="1:4">
@@ -17760,7 +17760,7 @@
         <v>0</v>
       </c>
       <c r="D1241">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="1242" spans="1:4">
@@ -17774,7 +17774,7 @@
         <v>0</v>
       </c>
       <c r="D1242">
-        <v>0.99</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="1243" spans="1:4">
@@ -17788,7 +17788,7 @@
         <v>0</v>
       </c>
       <c r="D1243">
-        <v>0.98</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="1244" spans="1:4">
@@ -17802,7 +17802,7 @@
         <v>0</v>
       </c>
       <c r="D1244">
-        <v>0.99</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="1245" spans="1:4">
@@ -17816,7 +17816,7 @@
         <v>0</v>
       </c>
       <c r="D1245">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="1246" spans="1:4">
@@ -17830,7 +17830,7 @@
         <v>0</v>
       </c>
       <c r="D1246">
-        <v>0.99</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="1247" spans="1:4">
@@ -17844,7 +17844,7 @@
         <v>0</v>
       </c>
       <c r="D1247">
-        <v>0.98</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="1248" spans="1:4">
@@ -17858,7 +17858,7 @@
         <v>0</v>
       </c>
       <c r="D1248">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="1249" spans="1:4">
@@ -17872,7 +17872,7 @@
         <v>0</v>
       </c>
       <c r="D1249">
-        <v>1</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="1250" spans="1:4">
@@ -17886,7 +17886,7 @@
         <v>0</v>
       </c>
       <c r="D1250">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="1251" spans="1:4">
@@ -17900,7 +17900,7 @@
         <v>0</v>
       </c>
       <c r="D1251">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="1252" spans="1:4">
@@ -17914,7 +17914,7 @@
         <v>0</v>
       </c>
       <c r="D1252">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="1253" spans="1:4">
@@ -17928,7 +17928,7 @@
         <v>0</v>
       </c>
       <c r="D1253">
-        <v>0.99</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="1254" spans="1:4">
@@ -17942,7 +17942,7 @@
         <v>0</v>
       </c>
       <c r="D1254">
-        <v>0.99</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="1255" spans="1:4">
@@ -17956,7 +17956,7 @@
         <v>0</v>
       </c>
       <c r="D1255">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="1256" spans="1:4">
@@ -17970,7 +17970,7 @@
         <v>0</v>
       </c>
       <c r="D1256">
-        <v>0.98</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="1257" spans="1:4">
@@ -17984,7 +17984,7 @@
         <v>0</v>
       </c>
       <c r="D1257">
-        <v>0.98</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="1258" spans="1:4">
@@ -17998,7 +17998,7 @@
         <v>0</v>
       </c>
       <c r="D1258">
-        <v>0.98</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="1259" spans="1:4">
@@ -18012,7 +18012,7 @@
         <v>0</v>
       </c>
       <c r="D1259">
-        <v>0.98</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="1260" spans="1:4">
@@ -18026,7 +18026,7 @@
         <v>0</v>
       </c>
       <c r="D1260">
-        <v>0.98</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="1261" spans="1:4">
@@ -18040,7 +18040,7 @@
         <v>0</v>
       </c>
       <c r="D1261">
-        <v>1</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="1262" spans="1:4">
@@ -18054,7 +18054,7 @@
         <v>0</v>
       </c>
       <c r="D1262">
-        <v>1</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="1263" spans="1:4">
@@ -18068,7 +18068,7 @@
         <v>0</v>
       </c>
       <c r="D1263">
-        <v>0.99</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="1264" spans="1:4">
@@ -18082,7 +18082,7 @@
         <v>0</v>
       </c>
       <c r="D1264">
-        <v>0.99</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="1265" spans="1:4">
@@ -18096,7 +18096,7 @@
         <v>0</v>
       </c>
       <c r="D1265">
-        <v>1</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="1266" spans="1:4">
@@ -18110,7 +18110,7 @@
         <v>0</v>
       </c>
       <c r="D1266">
-        <v>0.98</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="1267" spans="1:4">
@@ -18124,7 +18124,7 @@
         <v>0</v>
       </c>
       <c r="D1267">
-        <v>0.98</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="1268" spans="1:4">
@@ -18138,7 +18138,7 @@
         <v>0</v>
       </c>
       <c r="D1268">
-        <v>0.99</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="1269" spans="1:4">
@@ -18152,7 +18152,7 @@
         <v>0</v>
       </c>
       <c r="D1269">
-        <v>0.99</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="1270" spans="1:4">
@@ -18166,7 +18166,7 @@
         <v>0</v>
       </c>
       <c r="D1270">
-        <v>0.98</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="1271" spans="1:4">
@@ -18180,7 +18180,7 @@
         <v>0</v>
       </c>
       <c r="D1271">
-        <v>1</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="1272" spans="1:4">
@@ -18194,7 +18194,7 @@
         <v>0</v>
       </c>
       <c r="D1272">
-        <v>0.99</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="1273" spans="1:4">
@@ -18208,7 +18208,7 @@
         <v>0</v>
       </c>
       <c r="D1273">
-        <v>0.98</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="1274" spans="1:4">
@@ -18222,7 +18222,7 @@
         <v>0</v>
       </c>
       <c r="D1274">
-        <v>0.97</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="1275" spans="1:4">
@@ -18236,7 +18236,7 @@
         <v>0</v>
       </c>
       <c r="D1275">
-        <v>0.89</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="1276" spans="1:4">
@@ -18250,7 +18250,7 @@
         <v>0</v>
       </c>
       <c r="D1276">
-        <v>0.75</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1277" spans="1:4">
@@ -18264,7 +18264,7 @@
         <v>0</v>
       </c>
       <c r="D1277">
-        <v>0.6</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="1278" spans="1:4">
@@ -18278,7 +18278,7 @@
         <v>0</v>
       </c>
       <c r="D1278">
-        <v>0.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1279" spans="1:4">
@@ -18292,7 +18292,7 @@
         <v>0</v>
       </c>
       <c r="D1279">
-        <v>0.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1280" spans="1:4">
@@ -18306,7 +18306,7 @@
         <v>0.09</v>
       </c>
       <c r="D1280">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1281" spans="1:4">
@@ -18317,10 +18317,10 @@
         <v>46.62</v>
       </c>
       <c r="C1281">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="D1281">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1282" spans="1:4">
@@ -18331,10 +18331,10 @@
         <v>46.41</v>
       </c>
       <c r="C1282">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="D1282">
-        <v>0.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1283" spans="1:4">
@@ -18345,10 +18345,10 @@
         <v>46.16</v>
       </c>
       <c r="C1283">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="D1283">
-        <v>0.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1284" spans="1:4">
@@ -18359,10 +18359,10 @@
         <v>45.88</v>
       </c>
       <c r="C1284">
-        <v>0.51</v>
+        <v>0.48</v>
       </c>
       <c r="D1284">
-        <v>0.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1285" spans="1:4">
@@ -18373,10 +18373,10 @@
         <v>45.57</v>
       </c>
       <c r="C1285">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D1285">
-        <v>0.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1286" spans="1:4">
@@ -18387,10 +18387,10 @@
         <v>45.24</v>
       </c>
       <c r="C1286">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="D1286">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1287" spans="1:4">
@@ -18401,10 +18401,10 @@
         <v>44.88</v>
       </c>
       <c r="C1287">
-        <v>0.71</v>
+        <v>0.68</v>
       </c>
       <c r="D1287">
-        <v>0.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1288" spans="1:4">
@@ -18415,10 +18415,10 @@
         <v>44.51</v>
       </c>
       <c r="C1288">
-        <v>0.74</v>
+        <v>0.72</v>
       </c>
       <c r="D1288">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1289" spans="1:4">
@@ -18429,10 +18429,10 @@
         <v>44.12</v>
       </c>
       <c r="C1289">
-        <v>0.77</v>
+        <v>0.74</v>
       </c>
       <c r="D1289">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1290" spans="1:4">
@@ -18443,10 +18443,10 @@
         <v>43.72</v>
       </c>
       <c r="C1290">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="D1290">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1291" spans="1:4">
@@ -18457,10 +18457,10 @@
         <v>43.3</v>
       </c>
       <c r="C1291">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="D1291">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1292" spans="1:4">
@@ -18471,10 +18471,10 @@
         <v>42.88</v>
       </c>
       <c r="C1292">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="D1292">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1293" spans="1:4">
@@ -18485,10 +18485,10 @@
         <v>42.44</v>
       </c>
       <c r="C1293">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="D1293">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1294" spans="1:4">
@@ -18499,10 +18499,10 @@
         <v>42</v>
       </c>
       <c r="C1294">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="D1294">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1295" spans="1:4">
@@ -18513,10 +18513,10 @@
         <v>41.55</v>
       </c>
       <c r="C1295">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="D1295">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1296" spans="1:4">
@@ -18530,7 +18530,7 @@
         <v>0.8</v>
       </c>
       <c r="D1296">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1297" spans="1:4">
@@ -18544,7 +18544,7 @@
         <v>0.8</v>
       </c>
       <c r="D1297">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1298" spans="1:4">
@@ -18555,10 +18555,10 @@
         <v>40.17</v>
       </c>
       <c r="C1298">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="D1298">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1299" spans="1:4">
@@ -18569,10 +18569,10 @@
         <v>39.69</v>
       </c>
       <c r="C1299">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="D1299">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1300" spans="1:4">
@@ -18586,7 +18586,7 @@
         <v>0.8</v>
       </c>
       <c r="D1300">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1301" spans="1:4">
@@ -18600,7 +18600,7 @@
         <v>0.8</v>
       </c>
       <c r="D1301">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1302" spans="1:4">
@@ -18614,7 +18614,7 @@
         <v>0.8</v>
       </c>
       <c r="D1302">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1303" spans="1:4">
@@ -18625,10 +18625,10 @@
         <v>37.77</v>
       </c>
       <c r="C1303">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D1303">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1304" spans="1:4">
@@ -18639,7 +18639,7 @@
         <v>37.27</v>
       </c>
       <c r="C1304">
-        <v>0.79</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D1304">
         <v>0</v>
@@ -18653,7 +18653,7 @@
         <v>36.77</v>
       </c>
       <c r="C1305">
-        <v>0.79</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D1305">
         <v>0</v>
@@ -18681,7 +18681,7 @@
         <v>35.78</v>
       </c>
       <c r="C1307">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="D1307">
         <v>0</v>
@@ -18709,7 +18709,7 @@
         <v>34.79</v>
       </c>
       <c r="C1309">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="D1309">
         <v>0</v>
@@ -18737,7 +18737,7 @@
         <v>33.79</v>
       </c>
       <c r="C1311">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="D1311">
         <v>0</v>
@@ -18751,7 +18751,7 @@
         <v>33.29</v>
       </c>
       <c r="C1312">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="D1312">
         <v>0</v>
@@ -18765,7 +18765,7 @@
         <v>32.79</v>
       </c>
       <c r="C1313">
-        <v>0.82</v>
+        <v>0.79</v>
       </c>
       <c r="D1313">
         <v>0</v>
@@ -18779,7 +18779,7 @@
         <v>32.29</v>
       </c>
       <c r="C1314">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="D1314">
         <v>0</v>
@@ -18793,7 +18793,7 @@
         <v>31.79</v>
       </c>
       <c r="C1315">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="D1315">
         <v>0</v>
@@ -18821,7 +18821,7 @@
         <v>30.79</v>
       </c>
       <c r="C1317">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D1317">
         <v>0</v>
@@ -18835,7 +18835,7 @@
         <v>30.3</v>
       </c>
       <c r="C1318">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D1318">
         <v>0</v>
@@ -18849,7 +18849,7 @@
         <v>29.8</v>
       </c>
       <c r="C1319">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D1319">
         <v>0</v>
@@ -18863,7 +18863,7 @@
         <v>29.3</v>
       </c>
       <c r="C1320">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D1320">
         <v>0</v>
@@ -18891,7 +18891,7 @@
         <v>28.3</v>
       </c>
       <c r="C1322">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="D1322">
         <v>0</v>
@@ -18905,7 +18905,7 @@
         <v>27.79</v>
       </c>
       <c r="C1323">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="D1323">
         <v>0</v>
@@ -18919,7 +18919,7 @@
         <v>27.27</v>
       </c>
       <c r="C1324">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="D1324">
         <v>0</v>
@@ -18933,7 +18933,7 @@
         <v>26.77</v>
       </c>
       <c r="C1325">
-        <v>0.82</v>
+        <v>0.79</v>
       </c>
       <c r="D1325">
         <v>0</v>
@@ -18947,7 +18947,7 @@
         <v>26.26</v>
       </c>
       <c r="C1326">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="D1326">
         <v>0</v>
@@ -18975,7 +18975,7 @@
         <v>25.24</v>
       </c>
       <c r="C1328">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="D1328">
         <v>0</v>
@@ -18989,7 +18989,7 @@
         <v>24.74</v>
       </c>
       <c r="C1329">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="D1329">
         <v>0</v>
@@ -19003,7 +19003,7 @@
         <v>24.23</v>
       </c>
       <c r="C1330">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="D1330">
         <v>0</v>
@@ -19017,7 +19017,7 @@
         <v>23.73</v>
       </c>
       <c r="C1331">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="D1331">
         <v>0</v>
@@ -19045,7 +19045,7 @@
         <v>22.72</v>
       </c>
       <c r="C1333">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="D1333">
         <v>0</v>
@@ -19059,7 +19059,7 @@
         <v>22.22</v>
       </c>
       <c r="C1334">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="D1334">
         <v>0</v>
@@ -19073,7 +19073,7 @@
         <v>21.72</v>
       </c>
       <c r="C1335">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="D1335">
         <v>0</v>
@@ -19115,7 +19115,7 @@
         <v>20.21</v>
       </c>
       <c r="C1338">
-        <v>0.78</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D1338">
         <v>0</v>
@@ -19129,7 +19129,7 @@
         <v>19.71</v>
       </c>
       <c r="C1339">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="D1339">
         <v>0</v>
@@ -19143,7 +19143,7 @@
         <v>19.21</v>
       </c>
       <c r="C1340">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="D1340">
         <v>0</v>
@@ -19157,7 +19157,7 @@
         <v>18.71</v>
       </c>
       <c r="C1341">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="D1341">
         <v>0</v>
@@ -19185,7 +19185,7 @@
         <v>17.69</v>
       </c>
       <c r="C1343">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="D1343">
         <v>0</v>
@@ -19227,7 +19227,7 @@
         <v>16.16</v>
       </c>
       <c r="C1346">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="D1346">
         <v>0</v>
@@ -19283,7 +19283,7 @@
         <v>14.14</v>
       </c>
       <c r="C1350">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D1350">
         <v>0</v>
@@ -19325,7 +19325,7 @@
         <v>12.62</v>
       </c>
       <c r="C1353">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D1353">
         <v>0</v>
@@ -19339,7 +19339,7 @@
         <v>12.12</v>
       </c>
       <c r="C1354">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D1354">
         <v>0</v>
@@ -19353,7 +19353,7 @@
         <v>11.62</v>
       </c>
       <c r="C1355">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D1355">
         <v>0</v>
@@ -19409,7 +19409,7 @@
         <v>9.609999999999999</v>
       </c>
       <c r="C1359">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="D1359">
         <v>0</v>
@@ -19423,7 +19423,7 @@
         <v>9.109999999999999</v>
       </c>
       <c r="C1360">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="D1360">
         <v>0</v>
@@ -19465,7 +19465,7 @@
         <v>7.59</v>
       </c>
       <c r="C1363">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="D1363">
         <v>0</v>
@@ -19479,7 +19479,7 @@
         <v>7.08</v>
       </c>
       <c r="C1364">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="D1364">
         <v>0</v>
@@ -19507,7 +19507,7 @@
         <v>6.06</v>
       </c>
       <c r="C1366">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
       <c r="D1366">
         <v>0</v>
@@ -19549,7 +19549,7 @@
         <v>4.54</v>
       </c>
       <c r="C1369">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D1369">
         <v>0</v>
@@ -19563,7 +19563,7 @@
         <v>4.04</v>
       </c>
       <c r="C1370">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="D1370">
         <v>0</v>
@@ -19577,7 +19577,7 @@
         <v>3.53</v>
       </c>
       <c r="C1371">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D1371">
         <v>0.05</v>
@@ -19605,7 +19605,7 @@
         <v>2.7</v>
       </c>
       <c r="C1373">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="D1373">
         <v>0.05</v>
@@ -19619,7 +19619,7 @@
         <v>2.37</v>
       </c>
       <c r="C1374">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="D1374">
         <v>0.05</v>
@@ -19633,7 +19633,7 @@
         <v>2.07</v>
       </c>
       <c r="C1375">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="D1375">
         <v>0.05</v>
@@ -19647,7 +19647,7 @@
         <v>1.81</v>
       </c>
       <c r="C1376">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="D1376">
         <v>0.05</v>
@@ -19661,7 +19661,7 @@
         <v>1.59</v>
       </c>
       <c r="C1377">
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
       <c r="D1377">
         <v>0.05</v>
@@ -19675,7 +19675,7 @@
         <v>1.39</v>
       </c>
       <c r="C1378">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="D1378">
         <v>0.05</v>
@@ -19689,7 +19689,7 @@
         <v>1.21</v>
       </c>
       <c r="C1379">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="D1379">
         <v>0.05</v>
@@ -19703,7 +19703,7 @@
         <v>1.06</v>
       </c>
       <c r="C1380">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="D1380">
         <v>0.05</v>
@@ -19717,7 +19717,7 @@
         <v>0.93</v>
       </c>
       <c r="C1381">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="D1381">
         <v>0.05</v>
@@ -19731,7 +19731,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="C1382">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="D1382">
         <v>0.05</v>
@@ -19745,7 +19745,7 @@
         <v>0.71</v>
       </c>
       <c r="C1383">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="D1383">
         <v>0.05</v>
@@ -19773,7 +19773,7 @@
         <v>0.54</v>
       </c>
       <c r="C1385">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="D1385">
         <v>0.05</v>
@@ -19787,7 +19787,7 @@
         <v>0.48</v>
       </c>
       <c r="C1386">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="D1386">
         <v>0.05</v>
@@ -19801,7 +19801,7 @@
         <v>0.42</v>
       </c>
       <c r="C1387">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="D1387">
         <v>0.05</v>
@@ -19815,7 +19815,7 @@
         <v>0.36</v>
       </c>
       <c r="C1388">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="D1388">
         <v>0.05</v>
@@ -19829,7 +19829,7 @@
         <v>0.32</v>
       </c>
       <c r="C1389">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="D1389">
         <v>0.05</v>
@@ -19843,7 +19843,7 @@
         <v>0.28</v>
       </c>
       <c r="C1390">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="D1390">
         <v>0.05</v>
@@ -19871,7 +19871,7 @@
         <v>0.21</v>
       </c>
       <c r="C1392">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="D1392">
         <v>0.05</v>
@@ -19885,7 +19885,7 @@
         <v>0.19</v>
       </c>
       <c r="C1393">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="D1393">
         <v>0.05</v>
@@ -19899,7 +19899,7 @@
         <v>0.16</v>
       </c>
       <c r="C1394">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="D1394">
         <v>0.05</v>
@@ -19913,7 +19913,7 @@
         <v>0.14</v>
       </c>
       <c r="C1395">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="D1395">
         <v>0.05</v>
@@ -19941,7 +19941,7 @@
         <v>0.11</v>
       </c>
       <c r="C1397">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="D1397">
         <v>0.05</v>
@@ -19955,7 +19955,7 @@
         <v>0.1</v>
       </c>
       <c r="C1398">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="D1398">
         <v>0.05</v>
@@ -19983,7 +19983,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="C1400">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="D1400">
         <v>0.05</v>
@@ -19997,7 +19997,7 @@
         <v>0.06</v>
       </c>
       <c r="C1401">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="D1401">
         <v>0.05</v>
@@ -20011,7 +20011,7 @@
         <v>0.06</v>
       </c>
       <c r="C1402">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="D1402">
         <v>0.05</v>
@@ -20025,7 +20025,7 @@
         <v>0.05</v>
       </c>
       <c r="C1403">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="D1403">
         <v>0.05</v>
@@ -20053,7 +20053,7 @@
         <v>0.04</v>
       </c>
       <c r="C1405">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="D1405">
         <v>0.05</v>
@@ -20109,7 +20109,7 @@
         <v>0.02</v>
       </c>
       <c r="C1409">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="D1409">
         <v>0.05</v>
@@ -20123,7 +20123,7 @@
         <v>0.02</v>
       </c>
       <c r="C1410">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="D1410">
         <v>0.05</v>
@@ -20137,7 +20137,7 @@
         <v>0.02</v>
       </c>
       <c r="C1411">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="D1411">
         <v>0.05</v>
@@ -20165,7 +20165,7 @@
         <v>0.01</v>
       </c>
       <c r="C1413">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="D1413">
         <v>0.05</v>
@@ -20179,7 +20179,7 @@
         <v>0.01</v>
       </c>
       <c r="C1414">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="D1414">
         <v>0.05</v>
@@ -20193,7 +20193,7 @@
         <v>0.01</v>
       </c>
       <c r="C1415">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="D1415">
         <v>0.05</v>
@@ -20249,7 +20249,7 @@
         <v>0.01</v>
       </c>
       <c r="C1419">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="D1419">
         <v>0.05</v>
@@ -20263,7 +20263,7 @@
         <v>0.01</v>
       </c>
       <c r="C1420">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="D1420">
         <v>0.05</v>
@@ -20277,7 +20277,7 @@
         <v>0</v>
       </c>
       <c r="C1421">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="D1421">
         <v>0.05</v>
@@ -20291,7 +20291,7 @@
         <v>0</v>
       </c>
       <c r="C1422">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="D1422">
         <v>0.05</v>
@@ -20305,7 +20305,7 @@
         <v>0</v>
       </c>
       <c r="C1423">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="D1423">
         <v>0.05</v>
@@ -20319,7 +20319,7 @@
         <v>0</v>
       </c>
       <c r="C1424">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="D1424">
         <v>0.05</v>
@@ -20333,7 +20333,7 @@
         <v>0</v>
       </c>
       <c r="C1425">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="D1425">
         <v>0.05</v>
@@ -20347,7 +20347,7 @@
         <v>0</v>
       </c>
       <c r="C1426">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="D1426">
         <v>0.05</v>
@@ -20361,7 +20361,7 @@
         <v>0</v>
       </c>
       <c r="C1427">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="D1427">
         <v>0.05</v>
@@ -20375,7 +20375,7 @@
         <v>0</v>
       </c>
       <c r="C1428">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="D1428">
         <v>0.05</v>
@@ -20389,7 +20389,7 @@
         <v>0</v>
       </c>
       <c r="C1429">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="D1429">
         <v>0.05</v>
@@ -20403,7 +20403,7 @@
         <v>0</v>
       </c>
       <c r="C1430">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D1430">
         <v>0.05</v>
@@ -20417,7 +20417,7 @@
         <v>0</v>
       </c>
       <c r="C1431">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="D1431">
         <v>0.05</v>
@@ -20431,7 +20431,7 @@
         <v>0</v>
       </c>
       <c r="C1432">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="D1432">
         <v>0.05</v>
@@ -20445,7 +20445,7 @@
         <v>0</v>
       </c>
       <c r="C1433">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="D1433">
         <v>0.05</v>
@@ -20473,7 +20473,7 @@
         <v>0</v>
       </c>
       <c r="C1435">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D1435">
         <v>0.05</v>
@@ -20487,7 +20487,7 @@
         <v>0</v>
       </c>
       <c r="C1436">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D1436">
         <v>0.05</v>

--- a/tempo.xlsx
+++ b/tempo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/65e57b1b17248dcf/Residencia_Tecnologica_Stellantis_UFPE/Projeto Final/Start-Stop-System---Projeto-Final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79C2CDF6-D000-48B7-9DA0-7600F62DEF7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0AF7280-2301-4655-B1B6-4E32870E071F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -399,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1860"/>
+  <dimension ref="A1:D2092"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="C117" sqref="C117"/>
+    <sheetView tabSelected="1" topLeftCell="A2069" workbookViewId="0">
+      <selection activeCell="F2093" sqref="F2093"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26447,6 +26447,3254 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1861" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1861">
+        <v>186.9</v>
+      </c>
+      <c r="B1861">
+        <v>0</v>
+      </c>
+      <c r="C1861">
+        <v>0.05</v>
+      </c>
+      <c r="D1861">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1862">
+        <v>187</v>
+      </c>
+      <c r="B1862">
+        <v>0</v>
+      </c>
+      <c r="C1862">
+        <v>0.04</v>
+      </c>
+      <c r="D1862">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1863">
+        <v>187.1</v>
+      </c>
+      <c r="B1863">
+        <v>0</v>
+      </c>
+      <c r="C1863">
+        <v>0.03</v>
+      </c>
+      <c r="D1863">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1864">
+        <v>187.2</v>
+      </c>
+      <c r="B1864">
+        <v>0</v>
+      </c>
+      <c r="C1864">
+        <v>0.01</v>
+      </c>
+      <c r="D1864">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1865">
+        <v>187.3</v>
+      </c>
+      <c r="B1865">
+        <v>0</v>
+      </c>
+      <c r="C1865">
+        <v>0</v>
+      </c>
+      <c r="D1865">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1866">
+        <v>187.4</v>
+      </c>
+      <c r="B1866">
+        <v>0</v>
+      </c>
+      <c r="C1866">
+        <v>0</v>
+      </c>
+      <c r="D1866">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1867">
+        <v>187.5</v>
+      </c>
+      <c r="B1867">
+        <v>0</v>
+      </c>
+      <c r="C1867">
+        <v>0</v>
+      </c>
+      <c r="D1867">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1868">
+        <v>187.6</v>
+      </c>
+      <c r="B1868">
+        <v>0</v>
+      </c>
+      <c r="C1868">
+        <v>0</v>
+      </c>
+      <c r="D1868">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1869">
+        <v>187.7</v>
+      </c>
+      <c r="B1869">
+        <v>0</v>
+      </c>
+      <c r="C1869">
+        <v>0</v>
+      </c>
+      <c r="D1869">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1870">
+        <v>187.8</v>
+      </c>
+      <c r="B1870">
+        <v>0</v>
+      </c>
+      <c r="C1870">
+        <v>0</v>
+      </c>
+      <c r="D1870">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1871">
+        <v>187.9</v>
+      </c>
+      <c r="B1871">
+        <v>0</v>
+      </c>
+      <c r="C1871">
+        <v>0</v>
+      </c>
+      <c r="D1871">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1872">
+        <v>188</v>
+      </c>
+      <c r="B1872">
+        <v>0</v>
+      </c>
+      <c r="C1872">
+        <v>0</v>
+      </c>
+      <c r="D1872">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1873">
+        <v>188.1</v>
+      </c>
+      <c r="B1873">
+        <v>0</v>
+      </c>
+      <c r="C1873">
+        <v>0</v>
+      </c>
+      <c r="D1873">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1874">
+        <v>188.2</v>
+      </c>
+      <c r="B1874">
+        <v>0</v>
+      </c>
+      <c r="C1874">
+        <v>0</v>
+      </c>
+      <c r="D1874">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1875">
+        <v>188.3</v>
+      </c>
+      <c r="B1875">
+        <v>0</v>
+      </c>
+      <c r="C1875">
+        <v>0</v>
+      </c>
+      <c r="D1875">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1876">
+        <v>188.4</v>
+      </c>
+      <c r="B1876">
+        <v>0</v>
+      </c>
+      <c r="C1876">
+        <v>0</v>
+      </c>
+      <c r="D1876">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1877">
+        <v>188.5</v>
+      </c>
+      <c r="B1877">
+        <v>0</v>
+      </c>
+      <c r="C1877">
+        <v>0</v>
+      </c>
+      <c r="D1877">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1878" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1878">
+        <v>188.6</v>
+      </c>
+      <c r="B1878">
+        <v>0</v>
+      </c>
+      <c r="C1878">
+        <v>0</v>
+      </c>
+      <c r="D1878">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1879" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1879">
+        <v>188.7</v>
+      </c>
+      <c r="B1879">
+        <v>0</v>
+      </c>
+      <c r="C1879">
+        <v>0</v>
+      </c>
+      <c r="D1879">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1880" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1880">
+        <v>188.8</v>
+      </c>
+      <c r="B1880">
+        <v>0</v>
+      </c>
+      <c r="C1880">
+        <v>0</v>
+      </c>
+      <c r="D1880">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1881" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1881">
+        <v>188.9</v>
+      </c>
+      <c r="B1881">
+        <v>0</v>
+      </c>
+      <c r="C1881">
+        <v>0</v>
+      </c>
+      <c r="D1881">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1882" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1882">
+        <v>189</v>
+      </c>
+      <c r="B1882">
+        <v>0</v>
+      </c>
+      <c r="C1882">
+        <v>0</v>
+      </c>
+      <c r="D1882">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1883" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1883">
+        <v>189.1</v>
+      </c>
+      <c r="B1883">
+        <v>0</v>
+      </c>
+      <c r="C1883">
+        <v>0</v>
+      </c>
+      <c r="D1883">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1884" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1884">
+        <v>189.2</v>
+      </c>
+      <c r="B1884">
+        <v>0</v>
+      </c>
+      <c r="C1884">
+        <v>0</v>
+      </c>
+      <c r="D1884">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1885" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1885">
+        <v>189.3</v>
+      </c>
+      <c r="B1885">
+        <v>0</v>
+      </c>
+      <c r="C1885">
+        <v>0</v>
+      </c>
+      <c r="D1885">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1886">
+        <v>189.4</v>
+      </c>
+      <c r="B1886">
+        <v>0</v>
+      </c>
+      <c r="C1886">
+        <v>0</v>
+      </c>
+      <c r="D1886">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1887">
+        <v>189.5</v>
+      </c>
+      <c r="B1887">
+        <v>0</v>
+      </c>
+      <c r="C1887">
+        <v>0</v>
+      </c>
+      <c r="D1887">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1888" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1888">
+        <v>189.6</v>
+      </c>
+      <c r="B1888">
+        <v>0</v>
+      </c>
+      <c r="C1888">
+        <v>0</v>
+      </c>
+      <c r="D1888">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1889" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1889">
+        <v>189.7</v>
+      </c>
+      <c r="B1889">
+        <v>0</v>
+      </c>
+      <c r="C1889">
+        <v>0</v>
+      </c>
+      <c r="D1889">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1890" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1890">
+        <v>189.8</v>
+      </c>
+      <c r="B1890">
+        <v>0</v>
+      </c>
+      <c r="C1890">
+        <v>0</v>
+      </c>
+      <c r="D1890">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1891" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1891">
+        <v>189.9</v>
+      </c>
+      <c r="B1891">
+        <v>0</v>
+      </c>
+      <c r="C1891">
+        <v>0</v>
+      </c>
+      <c r="D1891">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1892" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1892">
+        <v>190</v>
+      </c>
+      <c r="B1892">
+        <v>0</v>
+      </c>
+      <c r="C1892">
+        <v>0</v>
+      </c>
+      <c r="D1892">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1893">
+        <v>190.1</v>
+      </c>
+      <c r="B1893">
+        <v>0</v>
+      </c>
+      <c r="C1893">
+        <v>0</v>
+      </c>
+      <c r="D1893">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1894" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1894">
+        <v>190.2</v>
+      </c>
+      <c r="B1894">
+        <v>0</v>
+      </c>
+      <c r="C1894">
+        <v>0</v>
+      </c>
+      <c r="D1894">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1895" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1895">
+        <v>190.3</v>
+      </c>
+      <c r="B1895">
+        <v>0</v>
+      </c>
+      <c r="C1895">
+        <v>0</v>
+      </c>
+      <c r="D1895">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1896" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1896">
+        <v>190.4</v>
+      </c>
+      <c r="B1896">
+        <v>0</v>
+      </c>
+      <c r="C1896">
+        <v>0</v>
+      </c>
+      <c r="D1896">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1897" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1897">
+        <v>190.5</v>
+      </c>
+      <c r="B1897">
+        <v>0</v>
+      </c>
+      <c r="C1897">
+        <v>0</v>
+      </c>
+      <c r="D1897">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1898" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1898">
+        <v>190.6</v>
+      </c>
+      <c r="B1898">
+        <v>0</v>
+      </c>
+      <c r="C1898">
+        <v>0</v>
+      </c>
+      <c r="D1898">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1899" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1899">
+        <v>190.7</v>
+      </c>
+      <c r="B1899">
+        <v>0</v>
+      </c>
+      <c r="C1899">
+        <v>0</v>
+      </c>
+      <c r="D1899">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1900" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1900">
+        <v>190.8</v>
+      </c>
+      <c r="B1900">
+        <v>0</v>
+      </c>
+      <c r="C1900">
+        <v>0</v>
+      </c>
+      <c r="D1900">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1901" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1901">
+        <v>190.9</v>
+      </c>
+      <c r="B1901">
+        <v>0</v>
+      </c>
+      <c r="C1901">
+        <v>0</v>
+      </c>
+      <c r="D1901">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1902" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1902">
+        <v>191</v>
+      </c>
+      <c r="B1902">
+        <v>0</v>
+      </c>
+      <c r="C1902">
+        <v>0</v>
+      </c>
+      <c r="D1902">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1903" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1903">
+        <v>191.1</v>
+      </c>
+      <c r="B1903">
+        <v>0</v>
+      </c>
+      <c r="C1903">
+        <v>0</v>
+      </c>
+      <c r="D1903">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1904" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1904">
+        <v>191.2</v>
+      </c>
+      <c r="B1904">
+        <v>0</v>
+      </c>
+      <c r="C1904">
+        <v>0</v>
+      </c>
+      <c r="D1904">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1905" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1905">
+        <v>191.3</v>
+      </c>
+      <c r="B1905">
+        <v>0</v>
+      </c>
+      <c r="C1905">
+        <v>0</v>
+      </c>
+      <c r="D1905">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1906" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1906">
+        <v>191.4</v>
+      </c>
+      <c r="B1906">
+        <v>0</v>
+      </c>
+      <c r="C1906">
+        <v>0</v>
+      </c>
+      <c r="D1906">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1907" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1907">
+        <v>191.5</v>
+      </c>
+      <c r="B1907">
+        <v>0</v>
+      </c>
+      <c r="C1907">
+        <v>0</v>
+      </c>
+      <c r="D1907">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1908" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1908">
+        <v>191.6</v>
+      </c>
+      <c r="B1908">
+        <v>0</v>
+      </c>
+      <c r="C1908">
+        <v>0</v>
+      </c>
+      <c r="D1908">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1909" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1909">
+        <v>191.7</v>
+      </c>
+      <c r="B1909">
+        <v>0</v>
+      </c>
+      <c r="C1909">
+        <v>0</v>
+      </c>
+      <c r="D1909">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1910" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1910">
+        <v>191.8</v>
+      </c>
+      <c r="B1910">
+        <v>0</v>
+      </c>
+      <c r="C1910">
+        <v>0</v>
+      </c>
+      <c r="D1910">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1911" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1911">
+        <v>191.9</v>
+      </c>
+      <c r="B1911">
+        <v>0</v>
+      </c>
+      <c r="C1911">
+        <v>0</v>
+      </c>
+      <c r="D1911">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1912" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1912">
+        <v>192</v>
+      </c>
+      <c r="B1912">
+        <v>0</v>
+      </c>
+      <c r="C1912">
+        <v>0</v>
+      </c>
+      <c r="D1912">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1913" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1913">
+        <v>192.1</v>
+      </c>
+      <c r="B1913">
+        <v>0</v>
+      </c>
+      <c r="C1913">
+        <v>0</v>
+      </c>
+      <c r="D1913">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1914" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1914">
+        <v>192.2</v>
+      </c>
+      <c r="B1914">
+        <v>0</v>
+      </c>
+      <c r="C1914">
+        <v>0</v>
+      </c>
+      <c r="D1914">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1915" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1915">
+        <v>192.3</v>
+      </c>
+      <c r="B1915">
+        <v>0</v>
+      </c>
+      <c r="C1915">
+        <v>0</v>
+      </c>
+      <c r="D1915">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1916" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1916">
+        <v>192.4</v>
+      </c>
+      <c r="B1916">
+        <v>0</v>
+      </c>
+      <c r="C1916">
+        <v>0</v>
+      </c>
+      <c r="D1916">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1917" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1917">
+        <v>192.5</v>
+      </c>
+      <c r="B1917">
+        <v>0</v>
+      </c>
+      <c r="C1917">
+        <v>0</v>
+      </c>
+      <c r="D1917">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1918" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1918">
+        <v>192.6</v>
+      </c>
+      <c r="B1918">
+        <v>0</v>
+      </c>
+      <c r="C1918">
+        <v>0</v>
+      </c>
+      <c r="D1918">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1919" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1919">
+        <v>192.7</v>
+      </c>
+      <c r="B1919">
+        <v>0</v>
+      </c>
+      <c r="C1919">
+        <v>0</v>
+      </c>
+      <c r="D1919">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1920" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1920">
+        <v>192.8</v>
+      </c>
+      <c r="B1920">
+        <v>0</v>
+      </c>
+      <c r="C1920">
+        <v>0</v>
+      </c>
+      <c r="D1920">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1921" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1921">
+        <v>192.9</v>
+      </c>
+      <c r="B1921">
+        <v>0</v>
+      </c>
+      <c r="C1921">
+        <v>0</v>
+      </c>
+      <c r="D1921">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1922" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1922">
+        <v>193</v>
+      </c>
+      <c r="B1922">
+        <v>0</v>
+      </c>
+      <c r="C1922">
+        <v>0</v>
+      </c>
+      <c r="D1922">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1923">
+        <v>193.1</v>
+      </c>
+      <c r="B1923">
+        <v>0</v>
+      </c>
+      <c r="C1923">
+        <v>0</v>
+      </c>
+      <c r="D1923">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1924" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1924">
+        <v>193.2</v>
+      </c>
+      <c r="B1924">
+        <v>0</v>
+      </c>
+      <c r="C1924">
+        <v>0</v>
+      </c>
+      <c r="D1924">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1925">
+        <v>193.3</v>
+      </c>
+      <c r="B1925">
+        <v>0</v>
+      </c>
+      <c r="C1925">
+        <v>0</v>
+      </c>
+      <c r="D1925">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1926" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1926">
+        <v>193.4</v>
+      </c>
+      <c r="B1926">
+        <v>0</v>
+      </c>
+      <c r="C1926">
+        <v>0</v>
+      </c>
+      <c r="D1926">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1927" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1927">
+        <v>193.5</v>
+      </c>
+      <c r="B1927">
+        <v>0</v>
+      </c>
+      <c r="C1927">
+        <v>0</v>
+      </c>
+      <c r="D1927">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1928" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1928">
+        <v>193.6</v>
+      </c>
+      <c r="B1928">
+        <v>0</v>
+      </c>
+      <c r="C1928">
+        <v>0</v>
+      </c>
+      <c r="D1928">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1929" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1929">
+        <v>193.7</v>
+      </c>
+      <c r="B1929">
+        <v>0</v>
+      </c>
+      <c r="C1929">
+        <v>0</v>
+      </c>
+      <c r="D1929">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1930" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1930">
+        <v>193.8</v>
+      </c>
+      <c r="B1930">
+        <v>0</v>
+      </c>
+      <c r="C1930">
+        <v>0</v>
+      </c>
+      <c r="D1930">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1931" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1931">
+        <v>193.9</v>
+      </c>
+      <c r="B1931">
+        <v>0</v>
+      </c>
+      <c r="C1931">
+        <v>0</v>
+      </c>
+      <c r="D1931">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1932" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1932">
+        <v>194</v>
+      </c>
+      <c r="B1932">
+        <v>0</v>
+      </c>
+      <c r="C1932">
+        <v>0</v>
+      </c>
+      <c r="D1932">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1933" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1933">
+        <v>194.1</v>
+      </c>
+      <c r="B1933">
+        <v>0</v>
+      </c>
+      <c r="C1933">
+        <v>0</v>
+      </c>
+      <c r="D1933">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1934" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1934">
+        <v>194.2</v>
+      </c>
+      <c r="B1934">
+        <v>0</v>
+      </c>
+      <c r="C1934">
+        <v>0</v>
+      </c>
+      <c r="D1934">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1935" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1935">
+        <v>194.3</v>
+      </c>
+      <c r="B1935">
+        <v>0</v>
+      </c>
+      <c r="C1935">
+        <v>0</v>
+      </c>
+      <c r="D1935">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1936" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1936">
+        <v>194.4</v>
+      </c>
+      <c r="B1936">
+        <v>0</v>
+      </c>
+      <c r="C1936">
+        <v>0</v>
+      </c>
+      <c r="D1936">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1937" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1937">
+        <v>194.5</v>
+      </c>
+      <c r="B1937">
+        <v>0</v>
+      </c>
+      <c r="C1937">
+        <v>0</v>
+      </c>
+      <c r="D1937">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1938" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1938">
+        <v>194.6</v>
+      </c>
+      <c r="B1938">
+        <v>0</v>
+      </c>
+      <c r="C1938">
+        <v>0</v>
+      </c>
+      <c r="D1938">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1939" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1939">
+        <v>194.7</v>
+      </c>
+      <c r="B1939">
+        <v>0</v>
+      </c>
+      <c r="C1939">
+        <v>0</v>
+      </c>
+      <c r="D1939">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1940" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1940">
+        <v>194.8</v>
+      </c>
+      <c r="B1940">
+        <v>0</v>
+      </c>
+      <c r="C1940">
+        <v>0</v>
+      </c>
+      <c r="D1940">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1941" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1941">
+        <v>194.9</v>
+      </c>
+      <c r="B1941">
+        <v>0</v>
+      </c>
+      <c r="C1941">
+        <v>0</v>
+      </c>
+      <c r="D1941">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1942" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1942">
+        <v>195</v>
+      </c>
+      <c r="B1942">
+        <v>0</v>
+      </c>
+      <c r="C1942">
+        <v>0</v>
+      </c>
+      <c r="D1942">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1943" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1943">
+        <v>195.1</v>
+      </c>
+      <c r="B1943">
+        <v>0</v>
+      </c>
+      <c r="C1943">
+        <v>0</v>
+      </c>
+      <c r="D1943">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1944" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1944">
+        <v>195.2</v>
+      </c>
+      <c r="B1944">
+        <v>0</v>
+      </c>
+      <c r="C1944">
+        <v>0</v>
+      </c>
+      <c r="D1944">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1945" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1945">
+        <v>195.29999999999899</v>
+      </c>
+      <c r="B1945">
+        <v>0</v>
+      </c>
+      <c r="C1945">
+        <v>0</v>
+      </c>
+      <c r="D1945">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1946" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1946">
+        <v>195.39999999999901</v>
+      </c>
+      <c r="B1946">
+        <v>0</v>
+      </c>
+      <c r="C1946">
+        <v>0</v>
+      </c>
+      <c r="D1946">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1947" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1947">
+        <v>195.49999999999901</v>
+      </c>
+      <c r="B1947">
+        <v>0</v>
+      </c>
+      <c r="C1947">
+        <v>0</v>
+      </c>
+      <c r="D1947">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1948" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1948">
+        <v>195.599999999999</v>
+      </c>
+      <c r="B1948">
+        <v>0</v>
+      </c>
+      <c r="C1948">
+        <v>0</v>
+      </c>
+      <c r="D1948">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1949" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1949">
+        <v>195.69999999999899</v>
+      </c>
+      <c r="B1949">
+        <v>0</v>
+      </c>
+      <c r="C1949">
+        <v>0</v>
+      </c>
+      <c r="D1949">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1950" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1950">
+        <v>195.79999999999899</v>
+      </c>
+      <c r="B1950">
+        <v>0</v>
+      </c>
+      <c r="C1950">
+        <v>0</v>
+      </c>
+      <c r="D1950">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1951" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1951">
+        <v>195.89999999999901</v>
+      </c>
+      <c r="B1951">
+        <v>0</v>
+      </c>
+      <c r="C1951">
+        <v>0</v>
+      </c>
+      <c r="D1951">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1952" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1952">
+        <v>195.99999999999901</v>
+      </c>
+      <c r="B1952">
+        <v>0</v>
+      </c>
+      <c r="C1952">
+        <v>0</v>
+      </c>
+      <c r="D1952">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1953" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1953">
+        <v>196.099999999999</v>
+      </c>
+      <c r="B1953">
+        <v>0</v>
+      </c>
+      <c r="C1953">
+        <v>0</v>
+      </c>
+      <c r="D1953">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1954" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1954">
+        <v>196.19999999999899</v>
+      </c>
+      <c r="B1954">
+        <v>0</v>
+      </c>
+      <c r="C1954">
+        <v>0</v>
+      </c>
+      <c r="D1954">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1955" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1955">
+        <v>196.29999999999899</v>
+      </c>
+      <c r="B1955">
+        <v>0</v>
+      </c>
+      <c r="C1955">
+        <v>0</v>
+      </c>
+      <c r="D1955">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1956" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1956">
+        <v>196.39999999999901</v>
+      </c>
+      <c r="B1956">
+        <v>0</v>
+      </c>
+      <c r="C1956">
+        <v>0</v>
+      </c>
+      <c r="D1956">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1957" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1957">
+        <v>196.49999999999901</v>
+      </c>
+      <c r="B1957">
+        <v>0</v>
+      </c>
+      <c r="C1957">
+        <v>0</v>
+      </c>
+      <c r="D1957">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1958" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1958">
+        <v>196.599999999999</v>
+      </c>
+      <c r="B1958">
+        <v>0</v>
+      </c>
+      <c r="C1958">
+        <v>0</v>
+      </c>
+      <c r="D1958">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1959" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1959">
+        <v>196.69999999999899</v>
+      </c>
+      <c r="B1959">
+        <v>0</v>
+      </c>
+      <c r="C1959">
+        <v>0</v>
+      </c>
+      <c r="D1959">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1960" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1960">
+        <v>196.79999999999899</v>
+      </c>
+      <c r="B1960">
+        <v>0</v>
+      </c>
+      <c r="C1960">
+        <v>0</v>
+      </c>
+      <c r="D1960">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1961" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1961">
+        <v>196.89999999999901</v>
+      </c>
+      <c r="B1961">
+        <v>0</v>
+      </c>
+      <c r="C1961">
+        <v>0</v>
+      </c>
+      <c r="D1961">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1962" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1962">
+        <v>196.99999999999901</v>
+      </c>
+      <c r="B1962">
+        <v>0</v>
+      </c>
+      <c r="C1962">
+        <v>0</v>
+      </c>
+      <c r="D1962">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1963" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1963">
+        <v>197.099999999999</v>
+      </c>
+      <c r="B1963">
+        <v>0</v>
+      </c>
+      <c r="C1963">
+        <v>0</v>
+      </c>
+      <c r="D1963">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1964" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1964">
+        <v>197.19999999999899</v>
+      </c>
+      <c r="B1964">
+        <v>0</v>
+      </c>
+      <c r="C1964">
+        <v>0</v>
+      </c>
+      <c r="D1964">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1965" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1965">
+        <v>197.29999999999899</v>
+      </c>
+      <c r="B1965">
+        <v>0</v>
+      </c>
+      <c r="C1965">
+        <v>0</v>
+      </c>
+      <c r="D1965">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1966" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1966">
+        <v>197.39999999999901</v>
+      </c>
+      <c r="B1966">
+        <v>0</v>
+      </c>
+      <c r="C1966">
+        <v>0</v>
+      </c>
+      <c r="D1966">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1967" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1967">
+        <v>197.49999999999901</v>
+      </c>
+      <c r="B1967">
+        <v>0</v>
+      </c>
+      <c r="C1967">
+        <v>0</v>
+      </c>
+      <c r="D1967">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1968" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1968">
+        <v>197.599999999999</v>
+      </c>
+      <c r="B1968">
+        <v>0</v>
+      </c>
+      <c r="C1968">
+        <v>0</v>
+      </c>
+      <c r="D1968">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1969" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1969">
+        <v>197.69999999999899</v>
+      </c>
+      <c r="B1969">
+        <v>0</v>
+      </c>
+      <c r="C1969">
+        <v>0</v>
+      </c>
+      <c r="D1969">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1970" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1970">
+        <v>197.79999999999899</v>
+      </c>
+      <c r="B1970">
+        <v>0</v>
+      </c>
+      <c r="C1970">
+        <v>0</v>
+      </c>
+      <c r="D1970">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1971" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1971">
+        <v>197.89999999999901</v>
+      </c>
+      <c r="B1971">
+        <v>0</v>
+      </c>
+      <c r="C1971">
+        <v>0</v>
+      </c>
+      <c r="D1971">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1972" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1972">
+        <v>197.99999999999901</v>
+      </c>
+      <c r="B1972">
+        <v>0</v>
+      </c>
+      <c r="C1972">
+        <v>0</v>
+      </c>
+      <c r="D1972">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1973" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1973">
+        <v>198.099999999999</v>
+      </c>
+      <c r="B1973">
+        <v>0</v>
+      </c>
+      <c r="C1973">
+        <v>0</v>
+      </c>
+      <c r="D1973">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1974" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1974">
+        <v>198.19999999999899</v>
+      </c>
+      <c r="B1974">
+        <v>0</v>
+      </c>
+      <c r="C1974">
+        <v>0</v>
+      </c>
+      <c r="D1974">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1975" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1975">
+        <v>198.29999999999899</v>
+      </c>
+      <c r="B1975">
+        <v>0</v>
+      </c>
+      <c r="C1975">
+        <v>0</v>
+      </c>
+      <c r="D1975">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1976" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1976">
+        <v>198.39999999999901</v>
+      </c>
+      <c r="B1976">
+        <v>0</v>
+      </c>
+      <c r="C1976">
+        <v>0</v>
+      </c>
+      <c r="D1976">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1977" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1977">
+        <v>198.49999999999901</v>
+      </c>
+      <c r="B1977">
+        <v>0</v>
+      </c>
+      <c r="C1977">
+        <v>0</v>
+      </c>
+      <c r="D1977">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1978" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1978">
+        <v>198.599999999999</v>
+      </c>
+      <c r="B1978">
+        <v>0</v>
+      </c>
+      <c r="C1978">
+        <v>0</v>
+      </c>
+      <c r="D1978">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1979" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1979">
+        <v>198.69999999999899</v>
+      </c>
+      <c r="B1979">
+        <v>0</v>
+      </c>
+      <c r="C1979">
+        <v>0</v>
+      </c>
+      <c r="D1979">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1980" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1980">
+        <v>198.79999999999899</v>
+      </c>
+      <c r="B1980">
+        <v>0</v>
+      </c>
+      <c r="C1980">
+        <v>0</v>
+      </c>
+      <c r="D1980">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1981" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1981">
+        <v>198.89999999999901</v>
+      </c>
+      <c r="B1981">
+        <v>0</v>
+      </c>
+      <c r="C1981">
+        <v>0</v>
+      </c>
+      <c r="D1981">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1982" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1982">
+        <v>198.99999999999901</v>
+      </c>
+      <c r="B1982">
+        <v>0</v>
+      </c>
+      <c r="C1982">
+        <v>0</v>
+      </c>
+      <c r="D1982">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1983" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1983">
+        <v>199.099999999999</v>
+      </c>
+      <c r="B1983">
+        <v>0</v>
+      </c>
+      <c r="C1983">
+        <v>0</v>
+      </c>
+      <c r="D1983">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1984" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1984">
+        <v>199.19999999999899</v>
+      </c>
+      <c r="B1984">
+        <v>0</v>
+      </c>
+      <c r="C1984">
+        <v>0</v>
+      </c>
+      <c r="D1984">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1985" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1985">
+        <v>199.29999999999899</v>
+      </c>
+      <c r="B1985">
+        <v>0</v>
+      </c>
+      <c r="C1985">
+        <v>0</v>
+      </c>
+      <c r="D1985">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1986" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1986">
+        <v>199.39999999999901</v>
+      </c>
+      <c r="B1986">
+        <v>0</v>
+      </c>
+      <c r="C1986">
+        <v>0</v>
+      </c>
+      <c r="D1986">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1987" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1987">
+        <v>199.49999999999901</v>
+      </c>
+      <c r="B1987">
+        <v>0</v>
+      </c>
+      <c r="C1987">
+        <v>0</v>
+      </c>
+      <c r="D1987">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1988" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1988">
+        <v>199.599999999999</v>
+      </c>
+      <c r="B1988">
+        <v>0</v>
+      </c>
+      <c r="C1988">
+        <v>0</v>
+      </c>
+      <c r="D1988">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1989" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1989">
+        <v>199.69999999999899</v>
+      </c>
+      <c r="B1989">
+        <v>0</v>
+      </c>
+      <c r="C1989">
+        <v>0</v>
+      </c>
+      <c r="D1989">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1990" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1990">
+        <v>199.79999999999899</v>
+      </c>
+      <c r="B1990">
+        <v>0</v>
+      </c>
+      <c r="C1990">
+        <v>0</v>
+      </c>
+      <c r="D1990">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1991" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1991">
+        <v>199.89999999999901</v>
+      </c>
+      <c r="B1991">
+        <v>0</v>
+      </c>
+      <c r="C1991">
+        <v>0</v>
+      </c>
+      <c r="D1991">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1992" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1992">
+        <v>199.99999999999901</v>
+      </c>
+      <c r="B1992">
+        <v>0</v>
+      </c>
+      <c r="C1992">
+        <v>0</v>
+      </c>
+      <c r="D1992">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1993" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1993">
+        <v>200.099999999999</v>
+      </c>
+      <c r="B1993">
+        <v>0</v>
+      </c>
+      <c r="C1993">
+        <v>0</v>
+      </c>
+      <c r="D1993">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1994" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1994">
+        <v>200.19999999999899</v>
+      </c>
+      <c r="B1994">
+        <v>0</v>
+      </c>
+      <c r="C1994">
+        <v>0</v>
+      </c>
+      <c r="D1994">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1995" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1995">
+        <v>200.29999999999899</v>
+      </c>
+      <c r="B1995">
+        <v>0</v>
+      </c>
+      <c r="C1995">
+        <v>0</v>
+      </c>
+      <c r="D1995">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1996" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1996">
+        <v>200.39999999999901</v>
+      </c>
+      <c r="B1996">
+        <v>0</v>
+      </c>
+      <c r="C1996">
+        <v>0</v>
+      </c>
+      <c r="D1996">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1997" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1997">
+        <v>200.49999999999901</v>
+      </c>
+      <c r="B1997">
+        <v>0</v>
+      </c>
+      <c r="C1997">
+        <v>0</v>
+      </c>
+      <c r="D1997">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1998" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1998">
+        <v>200.599999999999</v>
+      </c>
+      <c r="B1998">
+        <v>0</v>
+      </c>
+      <c r="C1998">
+        <v>0</v>
+      </c>
+      <c r="D1998">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1999" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1999">
+        <v>200.69999999999899</v>
+      </c>
+      <c r="B1999">
+        <v>0</v>
+      </c>
+      <c r="C1999">
+        <v>0</v>
+      </c>
+      <c r="D1999">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2000" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2000">
+        <v>200.79999999999899</v>
+      </c>
+      <c r="B2000">
+        <v>0</v>
+      </c>
+      <c r="C2000">
+        <v>0</v>
+      </c>
+      <c r="D2000">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2001" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2001">
+        <v>200.89999999999901</v>
+      </c>
+      <c r="B2001">
+        <v>0</v>
+      </c>
+      <c r="C2001">
+        <v>0</v>
+      </c>
+      <c r="D2001">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2002" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2002">
+        <v>200.99999999999901</v>
+      </c>
+      <c r="B2002">
+        <v>0</v>
+      </c>
+      <c r="C2002">
+        <v>0</v>
+      </c>
+      <c r="D2002">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2003" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2003">
+        <v>201.099999999999</v>
+      </c>
+      <c r="B2003">
+        <v>0</v>
+      </c>
+      <c r="C2003">
+        <v>0</v>
+      </c>
+      <c r="D2003">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2004" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2004">
+        <v>201.19999999999899</v>
+      </c>
+      <c r="B2004">
+        <v>0</v>
+      </c>
+      <c r="C2004">
+        <v>0</v>
+      </c>
+      <c r="D2004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2005" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2005">
+        <v>201.29999999999899</v>
+      </c>
+      <c r="B2005">
+        <v>0</v>
+      </c>
+      <c r="C2005">
+        <v>0</v>
+      </c>
+      <c r="D2005">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2006" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2006">
+        <v>201.39999999999901</v>
+      </c>
+      <c r="B2006">
+        <v>0</v>
+      </c>
+      <c r="C2006">
+        <v>0</v>
+      </c>
+      <c r="D2006">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2007" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2007">
+        <v>201.49999999999901</v>
+      </c>
+      <c r="B2007">
+        <v>0</v>
+      </c>
+      <c r="C2007">
+        <v>0</v>
+      </c>
+      <c r="D2007">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2008" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2008">
+        <v>201.599999999999</v>
+      </c>
+      <c r="B2008">
+        <v>0</v>
+      </c>
+      <c r="C2008">
+        <v>0</v>
+      </c>
+      <c r="D2008">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2009" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2009">
+        <v>201.69999999999899</v>
+      </c>
+      <c r="B2009">
+        <v>0</v>
+      </c>
+      <c r="C2009">
+        <v>0</v>
+      </c>
+      <c r="D2009">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2010" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2010">
+        <v>201.79999999999899</v>
+      </c>
+      <c r="B2010">
+        <v>0</v>
+      </c>
+      <c r="C2010">
+        <v>0</v>
+      </c>
+      <c r="D2010">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2011" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2011">
+        <v>201.89999999999901</v>
+      </c>
+      <c r="B2011">
+        <v>0</v>
+      </c>
+      <c r="C2011">
+        <v>0</v>
+      </c>
+      <c r="D2011">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2012" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2012">
+        <v>201.99999999999901</v>
+      </c>
+      <c r="B2012">
+        <v>0</v>
+      </c>
+      <c r="C2012">
+        <v>0</v>
+      </c>
+      <c r="D2012">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2013" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2013">
+        <v>202.099999999999</v>
+      </c>
+      <c r="B2013">
+        <v>0</v>
+      </c>
+      <c r="C2013">
+        <v>0</v>
+      </c>
+      <c r="D2013">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2014" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2014">
+        <v>202.19999999999899</v>
+      </c>
+      <c r="B2014">
+        <v>0</v>
+      </c>
+      <c r="C2014">
+        <v>0</v>
+      </c>
+      <c r="D2014">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2015" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2015">
+        <v>202.29999999999899</v>
+      </c>
+      <c r="B2015">
+        <v>0</v>
+      </c>
+      <c r="C2015">
+        <v>0</v>
+      </c>
+      <c r="D2015">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2016" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2016">
+        <v>202.39999999999901</v>
+      </c>
+      <c r="B2016">
+        <v>0</v>
+      </c>
+      <c r="C2016">
+        <v>0</v>
+      </c>
+      <c r="D2016">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2017" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2017">
+        <v>202.49999999999901</v>
+      </c>
+      <c r="B2017">
+        <v>0</v>
+      </c>
+      <c r="C2017">
+        <v>0</v>
+      </c>
+      <c r="D2017">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2018" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2018">
+        <v>202.599999999999</v>
+      </c>
+      <c r="B2018">
+        <v>0</v>
+      </c>
+      <c r="C2018">
+        <v>0</v>
+      </c>
+      <c r="D2018">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2019" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2019">
+        <v>202.69999999999899</v>
+      </c>
+      <c r="B2019">
+        <v>0</v>
+      </c>
+      <c r="C2019">
+        <v>0</v>
+      </c>
+      <c r="D2019">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2020" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2020">
+        <v>202.79999999999899</v>
+      </c>
+      <c r="B2020">
+        <v>0</v>
+      </c>
+      <c r="C2020">
+        <v>0</v>
+      </c>
+      <c r="D2020">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2021" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2021">
+        <v>202.89999999999901</v>
+      </c>
+      <c r="B2021">
+        <v>0</v>
+      </c>
+      <c r="C2021">
+        <v>0</v>
+      </c>
+      <c r="D2021">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2022" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2022">
+        <v>202.99999999999901</v>
+      </c>
+      <c r="B2022">
+        <v>0</v>
+      </c>
+      <c r="C2022">
+        <v>0</v>
+      </c>
+      <c r="D2022">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2023" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2023">
+        <v>203.099999999999</v>
+      </c>
+      <c r="B2023">
+        <v>0</v>
+      </c>
+      <c r="C2023">
+        <v>0</v>
+      </c>
+      <c r="D2023">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2024" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2024">
+        <v>203.19999999999899</v>
+      </c>
+      <c r="B2024">
+        <v>0</v>
+      </c>
+      <c r="C2024">
+        <v>0</v>
+      </c>
+      <c r="D2024">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2025" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2025">
+        <v>203.29999999999899</v>
+      </c>
+      <c r="B2025">
+        <v>0</v>
+      </c>
+      <c r="C2025">
+        <v>0</v>
+      </c>
+      <c r="D2025">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2026" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2026">
+        <v>203.39999999999901</v>
+      </c>
+      <c r="B2026">
+        <v>0</v>
+      </c>
+      <c r="C2026">
+        <v>0</v>
+      </c>
+      <c r="D2026">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2027" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2027">
+        <v>203.49999999999901</v>
+      </c>
+      <c r="B2027">
+        <v>0</v>
+      </c>
+      <c r="C2027">
+        <v>0</v>
+      </c>
+      <c r="D2027">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2028" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2028">
+        <v>203.599999999999</v>
+      </c>
+      <c r="B2028">
+        <v>0</v>
+      </c>
+      <c r="C2028">
+        <v>0</v>
+      </c>
+      <c r="D2028">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2029" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2029">
+        <v>203.69999999999899</v>
+      </c>
+      <c r="B2029">
+        <v>0</v>
+      </c>
+      <c r="C2029">
+        <v>0</v>
+      </c>
+      <c r="D2029">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2030" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2030">
+        <v>203.79999999999899</v>
+      </c>
+      <c r="B2030">
+        <v>0</v>
+      </c>
+      <c r="C2030">
+        <v>0</v>
+      </c>
+      <c r="D2030">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2031" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2031">
+        <v>203.89999999999901</v>
+      </c>
+      <c r="B2031">
+        <v>0</v>
+      </c>
+      <c r="C2031">
+        <v>0</v>
+      </c>
+      <c r="D2031">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2032" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2032">
+        <v>203.99999999999901</v>
+      </c>
+      <c r="B2032">
+        <v>0</v>
+      </c>
+      <c r="C2032">
+        <v>0</v>
+      </c>
+      <c r="D2032">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2033" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2033">
+        <v>204.099999999999</v>
+      </c>
+      <c r="B2033">
+        <v>0</v>
+      </c>
+      <c r="C2033">
+        <v>0</v>
+      </c>
+      <c r="D2033">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2034" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2034">
+        <v>204.19999999999899</v>
+      </c>
+      <c r="B2034">
+        <v>0</v>
+      </c>
+      <c r="C2034">
+        <v>0</v>
+      </c>
+      <c r="D2034">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2035" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2035">
+        <v>204.29999999999899</v>
+      </c>
+      <c r="B2035">
+        <v>0</v>
+      </c>
+      <c r="C2035">
+        <v>0</v>
+      </c>
+      <c r="D2035">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2036" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2036">
+        <v>204.39999999999901</v>
+      </c>
+      <c r="B2036">
+        <v>0</v>
+      </c>
+      <c r="C2036">
+        <v>0</v>
+      </c>
+      <c r="D2036">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2037" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2037">
+        <v>204.49999999999901</v>
+      </c>
+      <c r="B2037">
+        <v>0</v>
+      </c>
+      <c r="C2037">
+        <v>0</v>
+      </c>
+      <c r="D2037">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2038" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2038">
+        <v>204.599999999999</v>
+      </c>
+      <c r="B2038">
+        <v>0</v>
+      </c>
+      <c r="C2038">
+        <v>0</v>
+      </c>
+      <c r="D2038">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2039" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2039">
+        <v>204.69999999999899</v>
+      </c>
+      <c r="B2039">
+        <v>0</v>
+      </c>
+      <c r="C2039">
+        <v>0</v>
+      </c>
+      <c r="D2039">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2040" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2040">
+        <v>204.79999999999899</v>
+      </c>
+      <c r="B2040">
+        <v>0</v>
+      </c>
+      <c r="C2040">
+        <v>0</v>
+      </c>
+      <c r="D2040">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2041" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2041">
+        <v>204.89999999999901</v>
+      </c>
+      <c r="B2041">
+        <v>0</v>
+      </c>
+      <c r="C2041">
+        <v>0</v>
+      </c>
+      <c r="D2041">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2042" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2042">
+        <v>204.99999999999901</v>
+      </c>
+      <c r="B2042">
+        <v>0</v>
+      </c>
+      <c r="C2042">
+        <v>0</v>
+      </c>
+      <c r="D2042">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2043" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2043">
+        <v>205.099999999999</v>
+      </c>
+      <c r="B2043">
+        <v>0</v>
+      </c>
+      <c r="C2043">
+        <v>0</v>
+      </c>
+      <c r="D2043">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2044" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2044">
+        <v>205.19999999999899</v>
+      </c>
+      <c r="B2044">
+        <v>0</v>
+      </c>
+      <c r="C2044">
+        <v>0</v>
+      </c>
+      <c r="D2044">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2045" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2045">
+        <v>205.29999999999899</v>
+      </c>
+      <c r="B2045">
+        <v>0</v>
+      </c>
+      <c r="C2045">
+        <v>0</v>
+      </c>
+      <c r="D2045">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2046" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2046">
+        <v>205.39999999999901</v>
+      </c>
+      <c r="B2046">
+        <v>0</v>
+      </c>
+      <c r="C2046">
+        <v>0</v>
+      </c>
+      <c r="D2046">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2047" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2047">
+        <v>205.49999999999901</v>
+      </c>
+      <c r="B2047">
+        <v>0</v>
+      </c>
+      <c r="C2047">
+        <v>0</v>
+      </c>
+      <c r="D2047">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2048" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2048">
+        <v>205.599999999999</v>
+      </c>
+      <c r="B2048">
+        <v>0</v>
+      </c>
+      <c r="C2048">
+        <v>0</v>
+      </c>
+      <c r="D2048">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2049" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2049">
+        <v>205.69999999999899</v>
+      </c>
+      <c r="B2049">
+        <v>0</v>
+      </c>
+      <c r="C2049">
+        <v>0</v>
+      </c>
+      <c r="D2049">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2050" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2050">
+        <v>205.79999999999899</v>
+      </c>
+      <c r="B2050">
+        <v>0</v>
+      </c>
+      <c r="C2050">
+        <v>0</v>
+      </c>
+      <c r="D2050">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2051" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2051">
+        <v>205.89999999999901</v>
+      </c>
+      <c r="B2051">
+        <v>0</v>
+      </c>
+      <c r="C2051">
+        <v>0</v>
+      </c>
+      <c r="D2051">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2052" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2052">
+        <v>205.99999999999901</v>
+      </c>
+      <c r="B2052">
+        <v>0</v>
+      </c>
+      <c r="C2052">
+        <v>0</v>
+      </c>
+      <c r="D2052">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2053" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2053">
+        <v>206.099999999999</v>
+      </c>
+      <c r="B2053">
+        <v>0</v>
+      </c>
+      <c r="C2053">
+        <v>0</v>
+      </c>
+      <c r="D2053">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2054" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2054">
+        <v>206.19999999999899</v>
+      </c>
+      <c r="B2054">
+        <v>0</v>
+      </c>
+      <c r="C2054">
+        <v>0</v>
+      </c>
+      <c r="D2054">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2055" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2055">
+        <v>206.29999999999899</v>
+      </c>
+      <c r="B2055">
+        <v>0</v>
+      </c>
+      <c r="C2055">
+        <v>0</v>
+      </c>
+      <c r="D2055">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2056" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2056">
+        <v>206.39999999999901</v>
+      </c>
+      <c r="B2056">
+        <v>0</v>
+      </c>
+      <c r="C2056">
+        <v>0</v>
+      </c>
+      <c r="D2056">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2057" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2057">
+        <v>206.49999999999901</v>
+      </c>
+      <c r="B2057">
+        <v>0</v>
+      </c>
+      <c r="C2057">
+        <v>0</v>
+      </c>
+      <c r="D2057">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2058" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2058">
+        <v>206.599999999999</v>
+      </c>
+      <c r="B2058">
+        <v>0</v>
+      </c>
+      <c r="C2058">
+        <v>0</v>
+      </c>
+      <c r="D2058">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2059" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2059">
+        <v>206.69999999999899</v>
+      </c>
+      <c r="B2059">
+        <v>0</v>
+      </c>
+      <c r="C2059">
+        <v>0</v>
+      </c>
+      <c r="D2059">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2060" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2060">
+        <v>206.79999999999899</v>
+      </c>
+      <c r="B2060">
+        <v>0</v>
+      </c>
+      <c r="C2060">
+        <v>0</v>
+      </c>
+      <c r="D2060">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2061" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2061">
+        <v>206.89999999999901</v>
+      </c>
+      <c r="B2061">
+        <v>0</v>
+      </c>
+      <c r="C2061">
+        <v>0</v>
+      </c>
+      <c r="D2061">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2062" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2062">
+        <v>206.99999999999901</v>
+      </c>
+      <c r="B2062">
+        <v>0</v>
+      </c>
+      <c r="C2062">
+        <v>0</v>
+      </c>
+      <c r="D2062">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2063" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2063">
+        <v>207.099999999999</v>
+      </c>
+      <c r="B2063">
+        <v>0</v>
+      </c>
+      <c r="C2063">
+        <v>0</v>
+      </c>
+      <c r="D2063">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2064" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2064">
+        <v>207.19999999999899</v>
+      </c>
+      <c r="B2064">
+        <v>0</v>
+      </c>
+      <c r="C2064">
+        <v>0</v>
+      </c>
+      <c r="D2064">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2065" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2065">
+        <v>207.29999999999899</v>
+      </c>
+      <c r="B2065">
+        <v>0</v>
+      </c>
+      <c r="C2065">
+        <v>0</v>
+      </c>
+      <c r="D2065">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2066" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2066">
+        <v>207.39999999999901</v>
+      </c>
+      <c r="B2066">
+        <v>0</v>
+      </c>
+      <c r="C2066">
+        <v>0</v>
+      </c>
+      <c r="D2066">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2067" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2067">
+        <v>207.49999999999901</v>
+      </c>
+      <c r="B2067">
+        <v>0</v>
+      </c>
+      <c r="C2067">
+        <v>0</v>
+      </c>
+      <c r="D2067">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2068" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2068">
+        <v>207.599999999999</v>
+      </c>
+      <c r="B2068">
+        <v>0</v>
+      </c>
+      <c r="C2068">
+        <v>0</v>
+      </c>
+      <c r="D2068">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2069" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2069">
+        <v>207.69999999999899</v>
+      </c>
+      <c r="B2069">
+        <v>0</v>
+      </c>
+      <c r="C2069">
+        <v>0</v>
+      </c>
+      <c r="D2069">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2070" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2070">
+        <v>207.79999999999899</v>
+      </c>
+      <c r="B2070">
+        <v>0</v>
+      </c>
+      <c r="C2070">
+        <v>0</v>
+      </c>
+      <c r="D2070">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2071" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2071">
+        <v>207.89999999999901</v>
+      </c>
+      <c r="B2071">
+        <v>0</v>
+      </c>
+      <c r="C2071">
+        <v>0</v>
+      </c>
+      <c r="D2071">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2072" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2072">
+        <v>207.99999999999901</v>
+      </c>
+      <c r="B2072">
+        <v>0</v>
+      </c>
+      <c r="C2072">
+        <v>0</v>
+      </c>
+      <c r="D2072">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2073" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2073">
+        <v>208.099999999999</v>
+      </c>
+      <c r="B2073">
+        <v>0</v>
+      </c>
+      <c r="C2073">
+        <v>0</v>
+      </c>
+      <c r="D2073">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2074" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2074">
+        <v>208.19999999999899</v>
+      </c>
+      <c r="B2074">
+        <v>0</v>
+      </c>
+      <c r="C2074">
+        <v>0</v>
+      </c>
+      <c r="D2074">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2075" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2075">
+        <v>208.29999999999899</v>
+      </c>
+      <c r="B2075">
+        <v>0</v>
+      </c>
+      <c r="C2075">
+        <v>0</v>
+      </c>
+      <c r="D2075">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2076" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2076">
+        <v>208.39999999999901</v>
+      </c>
+      <c r="B2076">
+        <v>0</v>
+      </c>
+      <c r="C2076">
+        <v>0</v>
+      </c>
+      <c r="D2076">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2077" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2077">
+        <v>208.49999999999901</v>
+      </c>
+      <c r="B2077">
+        <v>0</v>
+      </c>
+      <c r="C2077">
+        <v>0</v>
+      </c>
+      <c r="D2077">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2078" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2078">
+        <v>208.599999999999</v>
+      </c>
+      <c r="B2078">
+        <v>0</v>
+      </c>
+      <c r="C2078">
+        <v>0</v>
+      </c>
+      <c r="D2078">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2079" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2079">
+        <v>208.69999999999899</v>
+      </c>
+      <c r="B2079">
+        <v>0</v>
+      </c>
+      <c r="C2079">
+        <v>0</v>
+      </c>
+      <c r="D2079">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2080" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2080">
+        <v>208.79999999999899</v>
+      </c>
+      <c r="B2080">
+        <v>0</v>
+      </c>
+      <c r="C2080">
+        <v>0</v>
+      </c>
+      <c r="D2080">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2081" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2081">
+        <v>208.89999999999901</v>
+      </c>
+      <c r="B2081">
+        <v>0</v>
+      </c>
+      <c r="C2081">
+        <v>0</v>
+      </c>
+      <c r="D2081">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2082" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2082">
+        <v>208.99999999999901</v>
+      </c>
+      <c r="B2082">
+        <v>0</v>
+      </c>
+      <c r="C2082">
+        <v>0</v>
+      </c>
+      <c r="D2082">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2083" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2083">
+        <v>209.099999999999</v>
+      </c>
+      <c r="B2083">
+        <v>0</v>
+      </c>
+      <c r="C2083">
+        <v>0</v>
+      </c>
+      <c r="D2083">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2084" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2084">
+        <v>209.19999999999899</v>
+      </c>
+      <c r="B2084">
+        <v>0</v>
+      </c>
+      <c r="C2084">
+        <v>0</v>
+      </c>
+      <c r="D2084">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2085" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2085">
+        <v>209.29999999999899</v>
+      </c>
+      <c r="B2085">
+        <v>0</v>
+      </c>
+      <c r="C2085">
+        <v>0</v>
+      </c>
+      <c r="D2085">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2086" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2086">
+        <v>209.39999999999901</v>
+      </c>
+      <c r="B2086">
+        <v>0</v>
+      </c>
+      <c r="C2086">
+        <v>0</v>
+      </c>
+      <c r="D2086">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2087" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2087">
+        <v>209.49999999999901</v>
+      </c>
+      <c r="B2087">
+        <v>0</v>
+      </c>
+      <c r="C2087">
+        <v>0</v>
+      </c>
+      <c r="D2087">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2088" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2088">
+        <v>209.599999999999</v>
+      </c>
+      <c r="B2088">
+        <v>0</v>
+      </c>
+      <c r="C2088">
+        <v>0</v>
+      </c>
+      <c r="D2088">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2089" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2089">
+        <v>209.69999999999899</v>
+      </c>
+      <c r="B2089">
+        <v>0</v>
+      </c>
+      <c r="C2089">
+        <v>0</v>
+      </c>
+      <c r="D2089">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2090" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2090">
+        <v>209.79999999999899</v>
+      </c>
+      <c r="B2090">
+        <v>0</v>
+      </c>
+      <c r="C2090">
+        <v>0</v>
+      </c>
+      <c r="D2090">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2091" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2091">
+        <v>209.89999999999901</v>
+      </c>
+      <c r="B2091">
+        <v>0</v>
+      </c>
+      <c r="C2091">
+        <v>0</v>
+      </c>
+      <c r="D2091">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2092" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2092">
+        <v>209.99999999999901</v>
+      </c>
+      <c r="B2092">
+        <v>0</v>
+      </c>
+      <c r="C2092">
+        <v>0</v>
+      </c>
+      <c r="D2092">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
